--- a/Orcad/6089-103-REVA_summary_BOM.xlsx
+++ b/Orcad/6089-103-REVA_summary_BOM.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\hardware\CMS_Trigger\6089-103_ATCA_mezz\GitHub\CU_PCB_6089-103\Orcad\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="21345" windowHeight="10050"/>
   </bookViews>
@@ -13,12 +18,12 @@
     <definedName name="NUM_BOARDS">BOM!$B$3</definedName>
     <definedName name="NUM_CARRIERS">BOM!$B$42</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="686">
   <si>
     <t>Item</t>
   </si>
@@ -2072,11 +2077,23 @@
   <si>
     <t>HOLE FOR M2.5 SCREW, PART OF PCB</t>
   </si>
+  <si>
+    <t>BR1,BR2,BR3</t>
+  </si>
+  <si>
+    <t>BRACKET FOR FRONT PANEL, SCREW M3 4 PIN PCB RA</t>
+  </si>
+  <si>
+    <t>36-7761-ND</t>
+  </si>
+  <si>
+    <t>7761</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
@@ -2727,6 +2744,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2774,7 +2794,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2809,7 +2829,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3018,11 +3038,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC161"/>
+  <dimension ref="A1:AC162"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D152" sqref="D152"/>
+      <selection pane="bottomLeft" activeCell="I140" sqref="I140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3177,7 +3197,7 @@
         <v>175</v>
       </c>
       <c r="N8" s="1">
-        <f>NUM_BOARDS*B8</f>
+        <f t="shared" ref="N8:N29" si="0">NUM_BOARDS*B8</f>
         <v>64</v>
       </c>
       <c r="O8" s="10">
@@ -3190,7 +3210,7 @@
         <v>0.1138</v>
       </c>
       <c r="R8" s="11">
-        <f>O8*Q8</f>
+        <f t="shared" ref="R8:R29" si="1">O8*Q8</f>
         <v>11.379999999999999</v>
       </c>
     </row>
@@ -3229,7 +3249,7 @@
         <v>38</v>
       </c>
       <c r="N9" s="1">
-        <f>NUM_BOARDS*B9</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="O9" s="10">
@@ -3242,7 +3262,7 @@
         <v>0.1638</v>
       </c>
       <c r="R9" s="11">
-        <f>O9*Q9</f>
+        <f t="shared" si="1"/>
         <v>16.38</v>
       </c>
     </row>
@@ -3281,7 +3301,7 @@
         <v>175</v>
       </c>
       <c r="N10" s="1">
-        <f>NUM_BOARDS*B10</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="O10" s="10">
@@ -3294,7 +3314,7 @@
         <v>0.12770000000000001</v>
       </c>
       <c r="R10" s="11">
-        <f>O10*Q10</f>
+        <f t="shared" si="1"/>
         <v>12.770000000000001</v>
       </c>
     </row>
@@ -3333,7 +3353,7 @@
         <v>38</v>
       </c>
       <c r="N11" s="1">
-        <f>NUM_BOARDS*B11</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="O11" s="10">
@@ -3346,7 +3366,7 @@
         <v>8.3599999999999994E-2</v>
       </c>
       <c r="R11" s="11">
-        <f>O11*Q11</f>
+        <f t="shared" si="1"/>
         <v>8.36</v>
       </c>
     </row>
@@ -3385,7 +3405,7 @@
         <v>38</v>
       </c>
       <c r="N12" s="1">
-        <f>NUM_BOARDS*B12</f>
+        <f t="shared" si="0"/>
         <v>128</v>
       </c>
       <c r="O12" s="10">
@@ -3398,7 +3418,7 @@
         <v>0.10667</v>
       </c>
       <c r="R12" s="11">
-        <f>O12*Q12</f>
+        <f t="shared" si="1"/>
         <v>16.000499999999999</v>
       </c>
     </row>
@@ -3437,7 +3457,7 @@
         <v>150</v>
       </c>
       <c r="N13" s="1">
-        <f>NUM_BOARDS*B13</f>
+        <f t="shared" si="0"/>
         <v>160</v>
       </c>
       <c r="O13" s="17">
@@ -3450,7 +3470,7 @@
         <v>0.317</v>
       </c>
       <c r="R13" s="11">
-        <f>O13*Q13</f>
+        <f t="shared" si="1"/>
         <v>47.55</v>
       </c>
     </row>
@@ -3492,7 +3512,7 @@
         <v>39</v>
       </c>
       <c r="N14" s="1">
-        <f>NUM_BOARDS*B14</f>
+        <f t="shared" si="0"/>
         <v>2928</v>
       </c>
       <c r="O14" s="10">
@@ -3505,7 +3525,7 @@
         <v>7.7600000000000004E-3</v>
       </c>
       <c r="R14" s="3">
-        <f>O14*Q14</f>
+        <f t="shared" si="1"/>
         <v>77.600000000000009</v>
       </c>
     </row>
@@ -3544,7 +3564,7 @@
         <v>38</v>
       </c>
       <c r="N15" s="1">
-        <f>NUM_BOARDS*B15</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="O15" s="10">
@@ -3557,7 +3577,7 @@
         <v>0.1014</v>
       </c>
       <c r="R15" s="11">
-        <f>O15*Q15</f>
+        <f t="shared" si="1"/>
         <v>10.14</v>
       </c>
     </row>
@@ -3596,7 +3616,7 @@
         <v>38</v>
       </c>
       <c r="N16" s="1">
-        <f>NUM_BOARDS*B16</f>
+        <f t="shared" si="0"/>
         <v>176</v>
       </c>
       <c r="O16" s="10">
@@ -3609,7 +3629,7 @@
         <v>4.2599999999999999E-2</v>
       </c>
       <c r="R16" s="11">
-        <f>O16*Q16</f>
+        <f t="shared" si="1"/>
         <v>10.65</v>
       </c>
     </row>
@@ -3648,7 +3668,7 @@
         <v>38</v>
       </c>
       <c r="N17" s="1">
-        <f>NUM_BOARDS*B17</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="O17" s="10">
@@ -3661,7 +3681,7 @@
         <v>0.30719999999999997</v>
       </c>
       <c r="R17" s="11">
-        <f>O17*Q17</f>
+        <f t="shared" si="1"/>
         <v>30.72</v>
       </c>
     </row>
@@ -3700,7 +3720,7 @@
         <v>38</v>
       </c>
       <c r="N18" s="1">
-        <f>NUM_BOARDS*B18</f>
+        <f t="shared" si="0"/>
         <v>488</v>
       </c>
       <c r="O18" s="10">
@@ -3713,7 +3733,7 @@
         <v>4.7449999999999999E-2</v>
       </c>
       <c r="R18" s="11">
-        <f>O18*Q18</f>
+        <f t="shared" si="1"/>
         <v>28.47</v>
       </c>
       <c r="V18" s="10"/>
@@ -3757,7 +3777,7 @@
         <v>150</v>
       </c>
       <c r="N19" s="1">
-        <f>NUM_BOARDS*B19</f>
+        <f t="shared" si="0"/>
         <v>176</v>
       </c>
       <c r="O19" s="10">
@@ -3770,7 +3790,7 @@
         <v>0.13789999999999999</v>
       </c>
       <c r="R19" s="11">
-        <f>O19*Q19</f>
+        <f t="shared" si="1"/>
         <v>27.58</v>
       </c>
     </row>
@@ -3809,7 +3829,7 @@
         <v>175</v>
       </c>
       <c r="N20" s="1">
-        <f>NUM_BOARDS*B20</f>
+        <f t="shared" si="0"/>
         <v>1824</v>
       </c>
       <c r="O20" s="10">
@@ -3822,7 +3842,7 @@
         <v>8.2989999999999994E-2</v>
       </c>
       <c r="R20" s="11">
-        <f>O20*Q20</f>
+        <f t="shared" si="1"/>
         <v>165.98</v>
       </c>
     </row>
@@ -3861,7 +3881,7 @@
         <v>174</v>
       </c>
       <c r="N21" s="1">
-        <f>NUM_BOARDS*B21</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="O21" s="10">
@@ -3874,7 +3894,7 @@
         <v>1.3131999999999999</v>
       </c>
       <c r="R21" s="11">
-        <f>O21*Q21</f>
+        <f t="shared" si="1"/>
         <v>32.83</v>
       </c>
       <c r="AC21" s="14"/>
@@ -3914,7 +3934,7 @@
         <v>150</v>
       </c>
       <c r="N22" s="1">
-        <f>NUM_BOARDS*B22</f>
+        <f t="shared" si="0"/>
         <v>128</v>
       </c>
       <c r="O22" s="10">
@@ -3927,7 +3947,7 @@
         <v>0.2384</v>
       </c>
       <c r="R22" s="11">
-        <f>O22*Q22</f>
+        <f t="shared" si="1"/>
         <v>47.68</v>
       </c>
     </row>
@@ -3966,7 +3986,7 @@
         <v>150</v>
       </c>
       <c r="N23" s="1">
-        <f>NUM_BOARDS*B23</f>
+        <f t="shared" si="0"/>
         <v>272</v>
       </c>
       <c r="O23" s="10">
@@ -3979,7 +3999,7 @@
         <v>0.24693000000000001</v>
       </c>
       <c r="R23" s="11">
-        <f>O23*Q23</f>
+        <f t="shared" si="1"/>
         <v>74.079000000000008</v>
       </c>
       <c r="AC23" s="14"/>
@@ -4019,7 +4039,7 @@
         <v>150</v>
       </c>
       <c r="N24" s="1">
-        <f>NUM_BOARDS*B24</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="O24" s="10">
@@ -4032,7 +4052,7 @@
         <v>0.75531000000000004</v>
       </c>
       <c r="R24" s="11">
-        <f>O24*Q24</f>
+        <f t="shared" si="1"/>
         <v>755.31000000000006</v>
       </c>
     </row>
@@ -4071,12 +4091,12 @@
         <v>476</v>
       </c>
       <c r="N25" s="1">
-        <f>NUM_BOARDS*B25</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="O25" s="17"/>
       <c r="R25" s="11">
-        <f>O25*Q25</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4115,7 +4135,7 @@
         <v>151</v>
       </c>
       <c r="N26" s="1">
-        <f>NUM_BOARDS*B26</f>
+        <f t="shared" si="0"/>
         <v>144</v>
       </c>
       <c r="O26" s="10">
@@ -4128,7 +4148,7 @@
         <v>0.752</v>
       </c>
       <c r="R26" s="11">
-        <f>O26*Q26</f>
+        <f t="shared" si="1"/>
         <v>120.32</v>
       </c>
     </row>
@@ -4167,7 +4187,7 @@
         <v>158</v>
       </c>
       <c r="N27" s="1">
-        <f>NUM_BOARDS*B27</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="O27" s="10">
@@ -4177,7 +4197,7 @@
         <v>1.177</v>
       </c>
       <c r="R27" s="11">
-        <f>O27*Q27</f>
+        <f t="shared" si="1"/>
         <v>117.7</v>
       </c>
     </row>
@@ -4216,7 +4236,7 @@
         <v>158</v>
       </c>
       <c r="N28" s="1">
-        <f>NUM_BOARDS*B28</f>
+        <f t="shared" si="0"/>
         <v>256</v>
       </c>
       <c r="O28" s="10">
@@ -4229,7 +4249,7 @@
         <v>1.0429999999999999</v>
       </c>
       <c r="R28" s="11">
-        <f>O28*Q28</f>
+        <f t="shared" si="1"/>
         <v>312.89999999999998</v>
       </c>
     </row>
@@ -4265,7 +4285,7 @@
         <v>94</v>
       </c>
       <c r="N29" s="1">
-        <f>NUM_BOARDS*B29</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="O29" s="10">
@@ -4278,7 +4298,7 @@
         <v>1.0720000000000001</v>
       </c>
       <c r="R29" s="11">
-        <f>O29*Q29</f>
+        <f t="shared" si="1"/>
         <v>107.2</v>
       </c>
     </row>
@@ -4514,7 +4534,7 @@
         <v>81</v>
       </c>
       <c r="N36" s="1">
-        <f>NUM_BOARDS*B36</f>
+        <f t="shared" ref="N36:N43" si="2">NUM_BOARDS*B36</f>
         <v>8</v>
       </c>
       <c r="O36" s="10">
@@ -4527,7 +4547,7 @@
         <v>0.93700000000000006</v>
       </c>
       <c r="R36" s="11">
-        <f>O36*Q36</f>
+        <f t="shared" ref="R36:R43" si="3">O36*Q36</f>
         <v>11.244</v>
       </c>
     </row>
@@ -4566,12 +4586,12 @@
         <v>502</v>
       </c>
       <c r="N37" s="1">
-        <f>NUM_BOARDS*B37</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="O37" s="17"/>
       <c r="R37" s="11">
-        <f>O37*Q37</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4610,7 +4630,7 @@
         <v>187</v>
       </c>
       <c r="N38" s="1">
-        <f>NUM_BOARDS*B38</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="O38" s="10">
@@ -4623,7 +4643,7 @@
         <v>0.58599999999999997</v>
       </c>
       <c r="R38" s="11">
-        <f>O38*Q38</f>
+        <f t="shared" si="3"/>
         <v>29.299999999999997</v>
       </c>
     </row>
@@ -4662,7 +4682,7 @@
         <v>190</v>
       </c>
       <c r="N39" s="1">
-        <f>NUM_BOARDS*B39</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="O39" s="10">
@@ -4675,7 +4695,7 @@
         <v>0.40799999999999997</v>
       </c>
       <c r="R39" s="11">
-        <f>O39*Q39</f>
+        <f t="shared" si="3"/>
         <v>20.399999999999999</v>
       </c>
     </row>
@@ -4714,7 +4734,7 @@
         <v>195</v>
       </c>
       <c r="N40" s="1">
-        <f>NUM_BOARDS*B40</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="O40" s="10">
@@ -4727,7 +4747,7 @@
         <v>0.217</v>
       </c>
       <c r="R40" s="11">
-        <f>O40*Q40</f>
+        <f t="shared" si="3"/>
         <v>10.85</v>
       </c>
     </row>
@@ -4768,7 +4788,7 @@
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
       <c r="N41" s="1">
-        <f>NUM_BOARDS*B41</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="O41" s="10">
@@ -4781,7 +4801,7 @@
         <v>1.0920000000000001</v>
       </c>
       <c r="R41" s="11">
-        <f>O41*Q41</f>
+        <f t="shared" si="3"/>
         <v>16.380000000000003</v>
       </c>
       <c r="S41" s="18"/>
@@ -4829,12 +4849,12 @@
       </c>
       <c r="K42" s="18"/>
       <c r="N42" s="1">
-        <f>NUM_BOARDS*B42</f>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="O42" s="17"/>
       <c r="R42" s="11">
-        <f>O42*Q42</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC42" s="14"/>
@@ -4874,7 +4894,7 @@
         <v>214</v>
       </c>
       <c r="N43" s="1">
-        <f>NUM_BOARDS*B43</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="O43" s="10">
@@ -4887,7 +4907,7 @@
         <v>0.23</v>
       </c>
       <c r="R43" s="11">
-        <f>O43*Q43</f>
+        <f t="shared" si="3"/>
         <v>3.45</v>
       </c>
     </row>
@@ -5461,7 +5481,7 @@
         <v>263</v>
       </c>
       <c r="N62" s="1">
-        <f>NUM_BOARDS*B62</f>
+        <f t="shared" ref="N62:N68" si="4">NUM_BOARDS*B62</f>
         <v>48</v>
       </c>
       <c r="O62" s="17"/>
@@ -5511,7 +5531,7 @@
         <v>246</v>
       </c>
       <c r="N63" s="1">
-        <f>NUM_BOARDS*B63</f>
+        <f t="shared" si="4"/>
         <v>272</v>
       </c>
       <c r="O63" s="10" t="s">
@@ -5563,7 +5583,7 @@
         <v>246</v>
       </c>
       <c r="N64" s="1">
-        <f>NUM_BOARDS*B64</f>
+        <f t="shared" si="4"/>
         <v>464</v>
       </c>
       <c r="O64" s="4" t="s">
@@ -5612,7 +5632,7 @@
         <v>246</v>
       </c>
       <c r="N65" s="1">
-        <f>NUM_BOARDS*B65</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="O65" s="10">
@@ -5664,7 +5684,7 @@
         <v>246</v>
       </c>
       <c r="N66" s="1">
-        <f>NUM_BOARDS*B66</f>
+        <f t="shared" si="4"/>
         <v>144</v>
       </c>
       <c r="O66" s="10">
@@ -5716,7 +5736,7 @@
         <v>263</v>
       </c>
       <c r="N67" s="1">
-        <f>NUM_BOARDS*B67</f>
+        <f t="shared" si="4"/>
         <v>1104</v>
       </c>
       <c r="O67" s="10">
@@ -5768,7 +5788,7 @@
         <v>263</v>
       </c>
       <c r="N68" s="1">
-        <f>NUM_BOARDS*B68</f>
+        <f t="shared" si="4"/>
         <v>392</v>
       </c>
       <c r="O68" s="1">
@@ -5905,7 +5925,7 @@
         <v>246</v>
       </c>
       <c r="N72" s="1">
-        <f>NUM_BOARDS*B72</f>
+        <f t="shared" ref="N72:N81" si="5">NUM_BOARDS*B72</f>
         <v>64</v>
       </c>
       <c r="O72" s="1">
@@ -5918,7 +5938,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="R72" s="11">
-        <f>O72*Q72</f>
+        <f t="shared" ref="R72:R81" si="6">O72*Q72</f>
         <v>14.499999999999998</v>
       </c>
       <c r="S72" s="4"/>
@@ -5958,7 +5978,7 @@
         <v>263</v>
       </c>
       <c r="N73" s="1">
-        <f>NUM_BOARDS*B73</f>
+        <f t="shared" si="5"/>
         <v>136</v>
       </c>
       <c r="O73" s="10">
@@ -5971,7 +5991,7 @@
         <v>1.8E-3</v>
       </c>
       <c r="R73" s="11">
-        <f>O73*Q73</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
     </row>
@@ -6010,7 +6030,7 @@
         <v>246</v>
       </c>
       <c r="N74" s="1">
-        <f>NUM_BOARDS*B74</f>
+        <f t="shared" si="5"/>
         <v>736</v>
       </c>
       <c r="O74" s="1">
@@ -6023,7 +6043,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="R74" s="11">
-        <f>O74*Q74</f>
+        <f t="shared" si="6"/>
         <v>14.499999999999998</v>
       </c>
       <c r="S74" s="4"/>
@@ -6063,7 +6083,7 @@
         <v>246</v>
       </c>
       <c r="N75" s="1">
-        <f>NUM_BOARDS*B75</f>
+        <f t="shared" si="5"/>
         <v>400</v>
       </c>
       <c r="O75" s="4" t="s">
@@ -6073,7 +6093,7 @@
         <v>5000</v>
       </c>
       <c r="R75" s="11" t="e">
-        <f>O75*Q75</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="S75" s="4"/>
@@ -6113,7 +6133,7 @@
         <v>246</v>
       </c>
       <c r="N76" s="1">
-        <f>NUM_BOARDS*B76</f>
+        <f t="shared" si="5"/>
         <v>96</v>
       </c>
       <c r="O76" s="10">
@@ -6126,7 +6146,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="R76" s="11">
-        <f>O76*Q76</f>
+        <f t="shared" si="6"/>
         <v>11.799999999999999</v>
       </c>
     </row>
@@ -6165,7 +6185,7 @@
         <v>246</v>
       </c>
       <c r="N77" s="1">
-        <f>NUM_BOARDS*B77</f>
+        <f t="shared" si="5"/>
         <v>504</v>
       </c>
       <c r="O77" s="4" t="s">
@@ -6175,7 +6195,7 @@
         <v>5000</v>
       </c>
       <c r="R77" s="11" t="e">
-        <f>O77*Q77</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="S77" s="4"/>
@@ -6215,7 +6235,7 @@
         <v>246</v>
       </c>
       <c r="N78" s="1">
-        <f>NUM_BOARDS*B78</f>
+        <f t="shared" si="5"/>
         <v>960</v>
       </c>
       <c r="O78" s="4" t="s">
@@ -6225,7 +6245,7 @@
         <v>5000</v>
       </c>
       <c r="R78" s="11" t="e">
-        <f>O78*Q78</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -6264,7 +6284,7 @@
         <v>246</v>
       </c>
       <c r="N79" s="1">
-        <f>NUM_BOARDS*B79</f>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="O79" s="1">
@@ -6277,7 +6297,7 @@
         <v>0.17299999999999999</v>
       </c>
       <c r="R79" s="11">
-        <f>O79*Q79</f>
+        <f t="shared" si="6"/>
         <v>17.299999999999997</v>
       </c>
       <c r="S79" s="4"/>
@@ -6317,7 +6337,7 @@
         <v>246</v>
       </c>
       <c r="N80" s="1">
-        <f>NUM_BOARDS*B80</f>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="O80" s="10">
@@ -6330,7 +6350,7 @@
         <v>0.17299999999999999</v>
       </c>
       <c r="R80" s="11">
-        <f>O80*Q80</f>
+        <f t="shared" si="6"/>
         <v>17.299999999999997</v>
       </c>
     </row>
@@ -6369,7 +6389,7 @@
         <v>246</v>
       </c>
       <c r="N81" s="1">
-        <f>NUM_BOARDS*B81</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="O81" s="10">
@@ -6382,7 +6402,7 @@
         <v>0.17299999999999999</v>
       </c>
       <c r="R81" s="11">
-        <f>O81*Q81</f>
+        <f t="shared" si="6"/>
         <v>17.299999999999997</v>
       </c>
       <c r="S81" s="4"/>
@@ -6800,7 +6820,7 @@
         <v>318</v>
       </c>
       <c r="N92" s="1">
-        <f>NUM_BOARDS*B92</f>
+        <f t="shared" ref="N92:N100" si="7">NUM_BOARDS*B92</f>
         <v>56</v>
       </c>
       <c r="O92" s="10">
@@ -6853,7 +6873,7 @@
         <v>323</v>
       </c>
       <c r="N93" s="1">
-        <f>NUM_BOARDS*B93</f>
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
       <c r="O93" s="17">
@@ -6906,7 +6926,7 @@
         <v>318</v>
       </c>
       <c r="N94" s="1">
-        <f>NUM_BOARDS*B94</f>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="O94" s="10">
@@ -6945,7 +6965,7 @@
         <v>329</v>
       </c>
       <c r="N95" s="1">
-        <f>NUM_BOARDS*B95</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="O95" s="18"/>
@@ -6975,7 +6995,7 @@
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
       <c r="N96" s="1">
-        <f>NUM_BOARDS*B96</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="O96" s="1"/>
@@ -7024,7 +7044,7 @@
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
       <c r="N97" s="1">
-        <f>NUM_BOARDS*B97</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="O97" s="10">
@@ -7079,7 +7099,7 @@
       <c r="L98" s="10"/>
       <c r="M98" s="10"/>
       <c r="N98" s="1">
-        <f>NUM_BOARDS*B98</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="O98" s="10">
@@ -7134,7 +7154,7 @@
       <c r="L99" s="10"/>
       <c r="M99" s="10"/>
       <c r="N99" s="1">
-        <f>NUM_BOARDS*B99</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="O99" s="10">
@@ -7189,7 +7209,7 @@
         <v>355</v>
       </c>
       <c r="N100" s="1">
-        <f>NUM_BOARDS*B100</f>
+        <f t="shared" si="7"/>
         <v>96</v>
       </c>
       <c r="O100" s="10">
@@ -7397,7 +7417,7 @@
         <v>379</v>
       </c>
       <c r="N105" s="1">
-        <f>NUM_BOARDS*B105</f>
+        <f t="shared" ref="N105:N110" si="8">NUM_BOARDS*B105</f>
         <v>8</v>
       </c>
       <c r="O105" s="10">
@@ -7410,7 +7430,7 @@
         <v>21.36</v>
       </c>
       <c r="R105" s="11">
-        <f>O105*Q105</f>
+        <f t="shared" ref="R105:R110" si="9">O105*Q105</f>
         <v>256.32</v>
       </c>
       <c r="S105" s="4"/>
@@ -7450,7 +7470,7 @@
         <v>355</v>
       </c>
       <c r="N106" s="1">
-        <f>NUM_BOARDS*B106</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="O106" s="10">
@@ -7463,7 +7483,7 @@
         <v>6.5533299999999999</v>
       </c>
       <c r="R106" s="11">
-        <f>O106*Q106</f>
+        <f t="shared" si="9"/>
         <v>78.639960000000002</v>
       </c>
       <c r="S106" s="4"/>
@@ -7500,7 +7520,7 @@
         <v>355</v>
       </c>
       <c r="N107" s="1">
-        <f>NUM_BOARDS*B107</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="O107" s="10">
@@ -7513,7 +7533,7 @@
         <v>9.6833299999999998</v>
       </c>
       <c r="R107" s="11">
-        <f>O107*Q107</f>
+        <f t="shared" si="9"/>
         <v>116.19996</v>
       </c>
       <c r="S107" s="4" t="s">
@@ -7555,7 +7575,7 @@
         <v>392</v>
       </c>
       <c r="N108" s="1">
-        <f>NUM_BOARDS*B108</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="O108" s="10">
@@ -7568,7 +7588,7 @@
         <v>6.1833299999999998</v>
       </c>
       <c r="R108" s="11">
-        <f>O108*Q108</f>
+        <f t="shared" si="9"/>
         <v>74.199960000000004</v>
       </c>
       <c r="S108" s="4"/>
@@ -7608,7 +7628,7 @@
         <v>397</v>
       </c>
       <c r="N109" s="1">
-        <f>NUM_BOARDS*B109</f>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="O109" s="10">
@@ -7621,7 +7641,7 @@
         <v>24.573599999999999</v>
       </c>
       <c r="R109" s="11">
-        <f>O109*Q109</f>
+        <f t="shared" si="9"/>
         <v>933.79679999999996</v>
       </c>
       <c r="S109" s="4"/>
@@ -7661,7 +7681,7 @@
         <v>402</v>
       </c>
       <c r="N110" s="1">
-        <f>NUM_BOARDS*B110</f>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="O110" s="10">
@@ -7674,7 +7694,7 @@
         <v>4.1900000000000004</v>
       </c>
       <c r="R110" s="11">
-        <f>O110*Q110</f>
+        <f t="shared" si="9"/>
         <v>83.800000000000011</v>
       </c>
       <c r="S110" s="4" t="s">
@@ -7747,7 +7767,7 @@
         <v>318</v>
       </c>
       <c r="N112" s="1">
-        <f>NUM_BOARDS*B112</f>
+        <f t="shared" ref="N112:N120" si="10">NUM_BOARDS*B112</f>
         <v>72</v>
       </c>
       <c r="O112" s="10">
@@ -7760,7 +7780,7 @@
         <v>0.26100000000000001</v>
       </c>
       <c r="R112" s="11">
-        <f>O112*Q112</f>
+        <f t="shared" ref="R112:R120" si="11">O112*Q112</f>
         <v>31.32</v>
       </c>
       <c r="S112" s="4"/>
@@ -7800,7 +7820,7 @@
         <v>411</v>
       </c>
       <c r="N113" s="1">
-        <f>NUM_BOARDS*B113</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="O113" s="10">
@@ -7813,7 +7833,7 @@
         <v>0.91332999999999998</v>
       </c>
       <c r="R113" s="11">
-        <f>O113*Q113</f>
+        <f t="shared" si="11"/>
         <v>10.959959999999999</v>
       </c>
       <c r="S113" s="4" t="s">
@@ -7855,7 +7875,7 @@
         <v>416</v>
       </c>
       <c r="N114" s="1">
-        <f>NUM_BOARDS*B114</f>
+        <f t="shared" si="10"/>
         <v>64</v>
       </c>
       <c r="O114" s="10">
@@ -7868,7 +7888,7 @@
         <v>1.0549999999999999</v>
       </c>
       <c r="R114" s="11">
-        <f>O114*Q114</f>
+        <f t="shared" si="11"/>
         <v>105.5</v>
       </c>
       <c r="S114" s="4"/>
@@ -7908,7 +7928,7 @@
         <v>416</v>
       </c>
       <c r="N115" s="1">
-        <f>NUM_BOARDS*B115</f>
+        <f t="shared" si="10"/>
         <v>56</v>
       </c>
       <c r="O115" s="10">
@@ -7921,7 +7941,7 @@
         <v>1.046</v>
       </c>
       <c r="R115" s="11">
-        <f>O115*Q115</f>
+        <f t="shared" si="11"/>
         <v>104.60000000000001</v>
       </c>
     </row>
@@ -7960,7 +7980,7 @@
         <v>425</v>
       </c>
       <c r="N116" s="1">
-        <f>NUM_BOARDS*B116</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="O116" s="8">
@@ -7973,7 +7993,7 @@
         <v>1.54</v>
       </c>
       <c r="R116" s="11">
-        <f>O116*Q116</f>
+        <f t="shared" si="11"/>
         <v>61.6</v>
       </c>
     </row>
@@ -8012,7 +8032,7 @@
         <v>430</v>
       </c>
       <c r="N117" s="1">
-        <f>NUM_BOARDS*B117</f>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="O117" s="10">
@@ -8025,7 +8045,7 @@
         <v>16.09</v>
       </c>
       <c r="R117" s="11">
-        <f>O117*Q117</f>
+        <f t="shared" si="11"/>
         <v>321.8</v>
       </c>
     </row>
@@ -8062,12 +8082,12 @@
         <v>472</v>
       </c>
       <c r="N118" s="1">
-        <f>NUM_BOARDS*B118</f>
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
       <c r="O118" s="17"/>
       <c r="R118" s="11">
-        <f>O118*Q118</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -8106,12 +8126,12 @@
         <v>495</v>
       </c>
       <c r="N119" s="1">
-        <f>NUM_BOARDS*B119</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="O119" s="17"/>
       <c r="R119" s="11">
-        <f>O119*Q119</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -8150,12 +8170,12 @@
         <v>495</v>
       </c>
       <c r="N120" s="1">
-        <f>NUM_BOARDS*B120</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="O120" s="17"/>
       <c r="R120" s="11">
-        <f>O120*Q120</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -8399,7 +8419,7 @@
         <v>21</v>
       </c>
       <c r="N133" s="1">
-        <f>NUM_BOARDS*B133</f>
+        <f t="shared" ref="N133:N140" si="12">NUM_BOARDS*B133</f>
         <v>96</v>
       </c>
       <c r="O133" s="10">
@@ -8412,7 +8432,7 @@
         <v>1.1559999999999999</v>
       </c>
       <c r="R133" s="3">
-        <f>O133*Q133</f>
+        <f t="shared" ref="R133:R157" si="13">O133*Q133</f>
         <v>161.83999999999997</v>
       </c>
       <c r="V133" s="10"/>
@@ -8441,7 +8461,7 @@
         <v>21</v>
       </c>
       <c r="N134" s="1">
-        <f>NUM_BOARDS*B134</f>
+        <f t="shared" si="12"/>
         <v>96</v>
       </c>
       <c r="O134" s="10">
@@ -8454,7 +8474,7 @@
         <v>5.45E-2</v>
       </c>
       <c r="R134" s="3">
-        <f>O134*Q134</f>
+        <f t="shared" si="13"/>
         <v>5.45</v>
       </c>
     </row>
@@ -8478,7 +8498,7 @@
         <v>21</v>
       </c>
       <c r="N135" s="1">
-        <f>NUM_BOARDS*B135</f>
+        <f t="shared" si="12"/>
         <v>96</v>
       </c>
       <c r="O135" s="10">
@@ -8491,7 +8511,7 @@
         <v>1.4E-2</v>
       </c>
       <c r="R135" s="3">
-        <f>O135*Q135</f>
+        <f t="shared" si="13"/>
         <v>1.4000000000000001</v>
       </c>
     </row>
@@ -8515,7 +8535,7 @@
         <v>21</v>
       </c>
       <c r="N136" s="1">
-        <f>NUM_BOARDS*B136</f>
+        <f t="shared" si="12"/>
         <v>96</v>
       </c>
       <c r="O136" s="10">
@@ -8528,252 +8548,234 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="R136" s="3">
-        <f>O136*Q136</f>
+        <f t="shared" si="13"/>
         <v>5.6000000000000005</v>
       </c>
     </row>
     <row r="137" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A137" s="10">
-        <v>108</v>
-      </c>
       <c r="B137" s="10">
-        <v>6</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D137" s="18" t="s">
-        <v>612</v>
+        <v>3</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>682</v>
       </c>
       <c r="E137" s="18" t="s">
-        <v>67</v>
+        <v>683</v>
       </c>
       <c r="F137" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="18" t="s">
-        <v>68</v>
+        <v>684</v>
       </c>
       <c r="H137" s="18" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="I137" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="M137" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N137" s="1">
-        <f>NUM_BOARDS*B137</f>
-        <v>48</v>
-      </c>
-      <c r="O137" s="10">
-        <v>100</v>
-      </c>
-      <c r="P137" s="10">
-        <v>100</v>
-      </c>
-      <c r="Q137" s="11">
-        <v>0.127</v>
-      </c>
-      <c r="R137" s="3">
-        <f>O137*Q137</f>
-        <v>12.7</v>
-      </c>
+        <v>685</v>
+      </c>
+      <c r="N137" s="1"/>
+      <c r="R137" s="3"/>
     </row>
     <row r="138" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A138" s="10">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B138" s="10">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D138" s="18" t="s">
+        <v>612</v>
       </c>
       <c r="E138" s="18" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F138" s="18" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="G138" s="18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H138" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="I138" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="I138" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="M138" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N138" s="1">
-        <f>NUM_BOARDS*B138</f>
-        <v>96</v>
-      </c>
-      <c r="O138" s="1">
-        <v>119</v>
-      </c>
-      <c r="P138" s="1">
-        <v>119</v>
+        <f t="shared" si="12"/>
+        <v>48</v>
+      </c>
+      <c r="O138" s="10">
+        <v>100</v>
+      </c>
+      <c r="P138" s="10">
+        <v>100</v>
       </c>
       <c r="Q138" s="11">
-        <v>0.185</v>
+        <v>0.127</v>
       </c>
       <c r="R138" s="3">
-        <f>O138*Q138</f>
-        <v>22.015000000000001</v>
-      </c>
-      <c r="S138" s="4"/>
-      <c r="V138" s="10"/>
-      <c r="W138" s="10"/>
-      <c r="X138" s="11"/>
-      <c r="Y138" s="11"/>
-      <c r="AC138" s="9"/>
+        <f t="shared" si="13"/>
+        <v>12.7</v>
+      </c>
     </row>
     <row r="139" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A139" s="10">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B139" s="10">
-        <v>2</v>
-      </c>
-      <c r="D139" s="30" t="s">
-        <v>673</v>
+        <v>12</v>
       </c>
       <c r="E139" s="18" t="s">
-        <v>311</v>
+        <v>74</v>
       </c>
       <c r="F139" s="18" t="s">
-        <v>181</v>
+        <v>71</v>
       </c>
       <c r="G139" s="18" t="s">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="H139" s="18" t="s">
-        <v>181</v>
+        <v>73</v>
       </c>
       <c r="I139" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="J139" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="K139" s="18" t="s">
-        <v>312</v>
+        <v>72</v>
       </c>
       <c r="M139" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N139" s="1">
-        <f>NUM_BOARDS*B139</f>
-        <v>16</v>
-      </c>
-      <c r="O139" s="10">
-        <v>20</v>
-      </c>
-      <c r="P139" s="10">
-        <v>20</v>
+        <f t="shared" si="12"/>
+        <v>96</v>
+      </c>
+      <c r="O139" s="1">
+        <v>119</v>
+      </c>
+      <c r="P139" s="1">
+        <v>119</v>
       </c>
       <c r="Q139" s="11">
-        <v>18.043500000000002</v>
+        <v>0.185</v>
       </c>
       <c r="R139" s="3">
-        <f>O139*Q139</f>
-        <v>360.87</v>
+        <f t="shared" si="13"/>
+        <v>22.015000000000001</v>
       </c>
       <c r="S139" s="4"/>
+      <c r="V139" s="10"/>
+      <c r="W139" s="10"/>
+      <c r="X139" s="11"/>
+      <c r="Y139" s="11"/>
+      <c r="AC139" s="9"/>
     </row>
     <row r="140" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A140" s="10">
-        <v>111</v>
-      </c>
-      <c r="B140" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="E140" s="13" t="s">
-        <v>455</v>
+        <v>110</v>
+      </c>
+      <c r="B140" s="10">
+        <v>2</v>
+      </c>
+      <c r="D140" s="30" t="s">
+        <v>673</v>
+      </c>
+      <c r="E140" s="18" t="s">
+        <v>311</v>
       </c>
       <c r="F140" s="18" t="s">
-        <v>227</v>
+        <v>181</v>
+      </c>
+      <c r="G140" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="H140" s="18" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="I140" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="J140" s="19"/>
-      <c r="K140" s="18"/>
+        <v>181</v>
+      </c>
+      <c r="J140" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="K140" s="18" t="s">
+        <v>312</v>
+      </c>
       <c r="M140" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="R140" s="11">
-        <f>O140*Q140</f>
-        <v>0</v>
+      <c r="N140" s="1">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="O140" s="10">
+        <v>20</v>
+      </c>
+      <c r="P140" s="10">
+        <v>20</v>
+      </c>
+      <c r="Q140" s="11">
+        <v>18.043500000000002</v>
+      </c>
+      <c r="R140" s="3">
+        <f t="shared" si="13"/>
+        <v>360.87</v>
       </c>
       <c r="S140" s="4"/>
     </row>
     <row r="141" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A141" s="10">
-        <v>112</v>
-      </c>
-      <c r="B141" s="10">
-        <v>1</v>
-      </c>
-      <c r="D141" s="10" t="s">
-        <v>669</v>
+        <v>111</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>453</v>
       </c>
       <c r="E141" s="13" t="s">
-        <v>226</v>
+        <v>455</v>
       </c>
       <c r="F141" s="18" t="s">
-        <v>466</v>
-      </c>
-      <c r="J141" s="19" t="s">
-        <v>229</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="H141" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="I141" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="J141" s="19"/>
       <c r="K141" s="18"/>
       <c r="M141" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="N141" s="1">
-        <f>NUM_BOARDS*B141</f>
-        <v>8</v>
-      </c>
-      <c r="O141" s="1">
-        <v>1</v>
-      </c>
-      <c r="P141" s="1"/>
-      <c r="Q141" s="11">
-        <v>172</v>
-      </c>
-      <c r="R141" s="3">
-        <f>O141*Q141</f>
-        <v>172</v>
-      </c>
-      <c r="S141" s="4" t="s">
-        <v>465</v>
-      </c>
+      <c r="R141" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S141" s="4"/>
     </row>
     <row r="142" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A142" s="10">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B142" s="10">
         <v>1</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E142" s="13" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F142" s="18" t="s">
         <v>466</v>
       </c>
-      <c r="I142" s="19"/>
       <c r="J142" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K142" s="18"/>
       <c r="M142" s="10" t="s">
@@ -8783,14 +8785,15 @@
         <f>NUM_BOARDS*B142</f>
         <v>8</v>
       </c>
-      <c r="O142" s="10">
+      <c r="O142" s="1">
         <v>1</v>
       </c>
+      <c r="P142" s="1"/>
       <c r="Q142" s="11">
         <v>172</v>
       </c>
-      <c r="R142" s="11">
-        <f>O142*Q142</f>
+      <c r="R142" s="3">
+        <f t="shared" si="13"/>
         <v>172</v>
       </c>
       <c r="S142" s="4" t="s">
@@ -8799,20 +8802,23 @@
     </row>
     <row r="143" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A143" s="10">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B143" s="10">
-        <v>2</v>
-      </c>
-      <c r="D143" s="33" t="s">
-        <v>676</v>
-      </c>
-      <c r="E143" s="18" t="s">
-        <v>467</v>
+        <v>1</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>670</v>
+      </c>
+      <c r="E143" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="F143" s="18" t="s">
+        <v>466</v>
       </c>
       <c r="I143" s="19"/>
       <c r="J143" s="19" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K143" s="18"/>
       <c r="M143" s="10" t="s">
@@ -8820,106 +8826,115 @@
       </c>
       <c r="N143" s="1">
         <f>NUM_BOARDS*B143</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O143" s="10">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q143" s="11">
-        <v>21.95</v>
+        <v>172</v>
       </c>
       <c r="R143" s="11">
-        <f>O143*Q143</f>
-        <v>351.2</v>
+        <f t="shared" si="13"/>
+        <v>172</v>
+      </c>
+      <c r="S143" s="4" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="144" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A144" s="10">
-        <v>115</v>
-      </c>
-      <c r="B144" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="E144" s="13" t="s">
-        <v>456</v>
-      </c>
-      <c r="F144" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="H144" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="I144" s="6" t="s">
-        <v>77</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B144" s="10">
+        <v>2</v>
+      </c>
+      <c r="D144" s="33" t="s">
+        <v>676</v>
+      </c>
+      <c r="E144" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="I144" s="19"/>
+      <c r="J144" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="K144" s="18"/>
       <c r="M144" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="N144" s="1"/>
-      <c r="O144" s="1">
-        <v>5</v>
-      </c>
-      <c r="P144" s="10">
-        <v>5</v>
+      <c r="N144" s="1">
+        <f>NUM_BOARDS*B144</f>
+        <v>16</v>
+      </c>
+      <c r="O144" s="10">
+        <v>16</v>
       </c>
       <c r="Q144" s="11">
-        <v>28.27</v>
-      </c>
-      <c r="R144" s="3">
-        <f>O144*Q144</f>
-        <v>141.35</v>
-      </c>
-      <c r="S144" s="4"/>
+        <v>21.95</v>
+      </c>
+      <c r="R144" s="11">
+        <f t="shared" si="13"/>
+        <v>351.2</v>
+      </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" s="10">
-        <v>116</v>
-      </c>
-      <c r="B145" s="10">
-        <v>1</v>
-      </c>
-      <c r="D145" s="10" t="s">
-        <v>671</v>
+        <v>115</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>453</v>
       </c>
       <c r="E145" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="I145" s="19"/>
-      <c r="J145" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="K145" s="18"/>
+        <v>456</v>
+      </c>
+      <c r="F145" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H145" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="I145" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="M145" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="N145" s="1">
-        <f>NUM_BOARDS*B145</f>
-        <v>8</v>
-      </c>
-      <c r="R145" s="11">
-        <f>O145*Q145</f>
-        <v>0</v>
-      </c>
+      <c r="N145" s="1"/>
+      <c r="O145" s="1">
+        <v>5</v>
+      </c>
+      <c r="P145" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q145" s="11">
+        <v>28.27</v>
+      </c>
+      <c r="R145" s="3">
+        <f t="shared" si="13"/>
+        <v>141.35</v>
+      </c>
+      <c r="S145" s="4"/>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" s="10">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B146" s="10">
         <v>1</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E146" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I146" s="19"/>
       <c r="J146" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K146" s="18"/>
       <c r="M146" s="10" t="s">
@@ -8930,506 +8945,536 @@
         <v>8</v>
       </c>
       <c r="R146" s="11">
-        <f>O146*Q146</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" s="10">
-        <v>118</v>
-      </c>
-      <c r="B147" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="E147" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F147" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H147" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="I147" s="6" t="s">
-        <v>64</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B147" s="10">
+        <v>1</v>
+      </c>
+      <c r="D147" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="E147" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="I147" s="19"/>
+      <c r="J147" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="K147" s="18"/>
       <c r="M147" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="N147" s="1"/>
-      <c r="O147" s="10">
-        <v>1</v>
-      </c>
-      <c r="P147" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q147" s="11">
-        <v>39.85</v>
-      </c>
-      <c r="R147" s="3">
-        <f>O147*Q147</f>
-        <v>39.85</v>
+      <c r="N147" s="1">
+        <f>NUM_BOARDS*B147</f>
+        <v>8</v>
+      </c>
+      <c r="R147" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" s="10">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B148" s="10" t="s">
         <v>453</v>
       </c>
       <c r="E148" s="18" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="F148" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="18" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="H148" s="18" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="I148" s="6" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="M148" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N148" s="1"/>
-      <c r="O148" s="1">
+      <c r="O148" s="10">
         <v>1</v>
       </c>
-      <c r="P148" s="1">
+      <c r="P148" s="10">
         <v>1</v>
       </c>
       <c r="Q148" s="11">
-        <v>20</v>
+        <v>39.85</v>
       </c>
       <c r="R148" s="3">
-        <f>O148*Q148</f>
-        <v>20</v>
-      </c>
-      <c r="S148" s="4"/>
+        <f t="shared" si="13"/>
+        <v>39.85</v>
+      </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" s="10">
-        <v>120</v>
-      </c>
-      <c r="B149" s="10">
-        <v>12</v>
-      </c>
-      <c r="E149" s="19" t="s">
-        <v>454</v>
+        <v>119</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="E149" s="18" t="s">
+        <v>86</v>
       </c>
       <c r="F149" s="18" t="s">
-        <v>463</v>
+        <v>10</v>
       </c>
       <c r="G149" s="18" t="s">
-        <v>462</v>
+        <v>87</v>
       </c>
       <c r="H149" s="18" t="s">
-        <v>463</v>
-      </c>
-      <c r="I149" s="18" t="s">
-        <v>462</v>
+        <v>88</v>
+      </c>
+      <c r="I149" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="M149" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="N149" s="1">
-        <f>NUM_BOARDS*B149</f>
-        <v>96</v>
-      </c>
-      <c r="O149" s="10">
-        <v>125</v>
-      </c>
-      <c r="P149" s="10">
-        <v>125</v>
+      <c r="N149" s="1"/>
+      <c r="O149" s="1">
+        <v>1</v>
+      </c>
+      <c r="P149" s="1">
+        <v>1</v>
       </c>
       <c r="Q149" s="11">
-        <v>0.95</v>
-      </c>
-      <c r="R149" s="11">
-        <f>O149*Q149</f>
-        <v>118.75</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="R149" s="3">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="S149" s="4"/>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" s="10">
-        <v>121</v>
-      </c>
-      <c r="B150" s="10" t="s">
-        <v>453</v>
+        <v>120</v>
+      </c>
+      <c r="B150" s="10">
+        <v>12</v>
       </c>
       <c r="E150" s="19" t="s">
-        <v>503</v>
+        <v>454</v>
       </c>
       <c r="F150" s="18" t="s">
-        <v>10</v>
+        <v>463</v>
       </c>
       <c r="G150" s="18" t="s">
-        <v>507</v>
+        <v>462</v>
       </c>
       <c r="H150" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="I150" s="6" t="s">
-        <v>508</v>
+        <v>463</v>
+      </c>
+      <c r="I150" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="M150" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="N150" s="1">
-        <v>10</v>
-      </c>
-      <c r="O150" s="17"/>
+        <f>NUM_BOARDS*B150</f>
+        <v>96</v>
+      </c>
+      <c r="O150" s="10">
+        <v>125</v>
+      </c>
+      <c r="P150" s="10">
+        <v>125</v>
+      </c>
+      <c r="Q150" s="11">
+        <v>0.95</v>
+      </c>
       <c r="R150" s="11">
-        <f>O150*Q150</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>118.75</v>
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" s="10">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B151" s="10" t="s">
         <v>453</v>
       </c>
       <c r="E151" s="19" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F151" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="18" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="H151" s="18" t="s">
         <v>198</v>
       </c>
       <c r="I151" s="6" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="N151" s="1">
         <v>10</v>
       </c>
       <c r="O151" s="17"/>
       <c r="R151" s="11">
-        <f>O151*Q151</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" s="10">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B152" s="10" t="s">
         <v>453</v>
       </c>
       <c r="E152" s="19" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F152" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="18" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="H152" s="18" t="s">
         <v>198</v>
       </c>
       <c r="I152" s="6" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="N152" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="O152" s="17"/>
       <c r="R152" s="11">
-        <f>O152*Q152</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" s="10">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B153" s="10" t="s">
         <v>453</v>
       </c>
       <c r="E153" s="19" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="F153" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="18" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H153" s="18" t="s">
-        <v>521</v>
+        <v>198</v>
       </c>
       <c r="I153" s="6" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="N153" s="1">
         <v>100</v>
       </c>
       <c r="O153" s="17"/>
       <c r="R153" s="11">
-        <f>O153*Q153</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" s="10">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B154" s="10" t="s">
         <v>453</v>
       </c>
       <c r="E154" s="19" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F154" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="18" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="H154" s="18" t="s">
         <v>521</v>
       </c>
       <c r="I154" s="6" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="N154" s="1">
         <v>100</v>
       </c>
       <c r="O154" s="17"/>
       <c r="R154" s="11">
-        <f>O154*Q154</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" s="10">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B155" s="10" t="s">
         <v>453</v>
       </c>
       <c r="E155" s="19" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="F155" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="18" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H155" s="18" t="s">
-        <v>211</v>
+        <v>521</v>
       </c>
       <c r="I155" s="6" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="N155" s="1">
         <v>100</v>
       </c>
       <c r="O155" s="17"/>
       <c r="R155" s="11">
-        <f>O155*Q155</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" s="10">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B156" s="10" t="s">
         <v>453</v>
       </c>
       <c r="E156" s="19" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F156" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="18" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="H156" s="18" t="s">
-        <v>3</v>
+        <v>211</v>
       </c>
       <c r="I156" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="N156" s="1">
         <v>100</v>
       </c>
       <c r="O156" s="17"/>
       <c r="R156" s="11">
-        <f>O156*Q156</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" s="10">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="E157" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="F157" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="H157" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I157" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="N157" s="1">
+        <v>100</v>
+      </c>
+      <c r="O157" s="17"/>
+      <c r="R157" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" s="10">
-        <v>129</v>
-      </c>
-      <c r="B158" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="R158" s="11">
-        <f>O158*Q158</f>
-        <v>0</v>
+        <v>128</v>
       </c>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" s="10">
-        <v>130</v>
-      </c>
-      <c r="B159" s="10">
-        <v>0</v>
-      </c>
-      <c r="C159" s="10" t="s">
-        <v>538</v>
-      </c>
-      <c r="E159" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="G159" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="H159" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="I159" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="J159" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="K159" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="N159" s="1">
-        <f>NUM_BOARDS*B159</f>
-        <v>0</v>
-      </c>
-      <c r="O159" s="10">
-        <v>500</v>
-      </c>
-      <c r="P159" s="10">
-        <v>500</v>
-      </c>
-      <c r="Q159" s="11">
-        <v>0.78500000000000003</v>
+        <v>129</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>440</v>
       </c>
       <c r="R159" s="11">
         <f>O159*Q159</f>
-        <v>392.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" s="10">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B160" s="10">
         <v>0</v>
       </c>
+      <c r="C160" s="10" t="s">
+        <v>538</v>
+      </c>
       <c r="E160" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="F160" s="18" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G160" s="18" t="s">
-        <v>204</v>
+        <v>112</v>
       </c>
       <c r="H160" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="I160" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="J160" s="19" t="s">
-        <v>207</v>
+        <v>113</v>
+      </c>
+      <c r="I160" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J160" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="K160" s="18" t="s">
-        <v>208</v>
+        <v>94</v>
       </c>
       <c r="N160" s="1">
         <f>NUM_BOARDS*B160</f>
         <v>0</v>
       </c>
       <c r="O160" s="10">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="P160" s="10">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="Q160" s="11">
-        <v>0.86</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="R160" s="11">
         <f>O160*Q160</f>
-        <v>51.6</v>
+        <v>392.5</v>
       </c>
     </row>
     <row r="161" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A161" s="10">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B161" s="10">
         <v>0</v>
       </c>
-      <c r="E161" s="19" t="s">
-        <v>82</v>
+      <c r="E161" s="18" t="s">
+        <v>203</v>
       </c>
       <c r="F161" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="18" t="s">
-        <v>83</v>
+        <v>204</v>
       </c>
       <c r="H161" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="I161" s="6" t="s">
-        <v>84</v>
+        <v>205</v>
+      </c>
+      <c r="I161" s="19" t="s">
+        <v>206</v>
       </c>
       <c r="J161" s="19" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="K161" s="18" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="N161" s="1">
         <f>NUM_BOARDS*B161</f>
         <v>0</v>
       </c>
       <c r="O161" s="10">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="P161" s="10">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="Q161" s="11">
-        <v>0.27900000000000003</v>
+        <v>0.86</v>
       </c>
       <c r="R161" s="11">
         <f>O161*Q161</f>
+        <v>51.6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A162" s="10">
+        <v>132</v>
+      </c>
+      <c r="B162" s="10">
+        <v>0</v>
+      </c>
+      <c r="E162" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F162" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="H162" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I162" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J162" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="K162" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="N162" s="1">
+        <f>NUM_BOARDS*B162</f>
+        <v>0</v>
+      </c>
+      <c r="O162" s="10">
+        <v>12</v>
+      </c>
+      <c r="P162" s="10">
+        <v>12</v>
+      </c>
+      <c r="Q162" s="11">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="R162" s="11">
+        <f>O162*Q162</f>
         <v>3.3480000000000003</v>
       </c>
-      <c r="AC161" s="14"/>
+      <c r="AC162" s="14"/>
     </row>
   </sheetData>
   <sortState ref="A7:S142">

--- a/Orcad/6089-103-REVA_summary_BOM.xlsx
+++ b/Orcad/6089-103-REVA_summary_BOM.xlsx
@@ -1741,9 +1741,6 @@
     <t>R73,R74,R75,R76,R77,R78,R79,R80,R153,R154,R155,R156,R157,R158,R159,R160,R191,R192,R251,R252,R253,R254,R255,R256,R449,R450,R461,R462,R472,R474,R479,R480,R481,R485</t>
   </si>
   <si>
-    <t>R337,R338,R342,R343,R379,R381,R387,R389,R393,R394,R399,R400,R418,R419,R420,R421,R427,R428,R429,R430,R435,R437,R439,R440,R441,R442,R451,R459,R463,R464,R477,R478,R482,R488,R518,R521,R522,R523,R527,R535,R660,R661,R662,R663,R664,R665,R698,R699,R700,R701,R702,R703,R714,R715,R716,R717,R718,R719</t>
-  </si>
-  <si>
     <t>R90,R91,R145,R146,R448,R489</t>
   </si>
   <si>
@@ -2088,6 +2085,9 @@
   </si>
   <si>
     <t>7761</t>
+  </si>
+  <si>
+    <t>R337,R338,R342,R343,R379,R381,R387,R389,R393,R394,R399,R400,R418,R419,R420,R421,R427,R428,R429,R430,R435,R437,R439,R440,R441,R442,R451,R459,R463,R464,R477,R478,R482,R488,R518,R521,R522,R523,R527,R535,R660,R661,R662,R663,R664,R665,R698,R699,R700,R701,R702,R703,R714,R715,R716,R717,R718,R719,R726,R727,R728,R729</t>
   </si>
 </sst>
 </file>
@@ -3041,8 +3041,8 @@
   <dimension ref="A1:AC162"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I140" sqref="I140"/>
+      <pane ySplit="5" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3155,10 +3155,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="31" t="s">
+        <v>673</v>
+      </c>
+      <c r="E7" s="32" t="s">
         <v>674</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>675</v>
       </c>
       <c r="F7" s="19"/>
     </row>
@@ -3173,7 +3173,7 @@
         <v>39</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>452</v>
@@ -3225,7 +3225,7 @@
         <v>39</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>142</v>
@@ -3277,7 +3277,7 @@
         <v>39</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>177</v>
@@ -3329,7 +3329,7 @@
         <v>39</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>148</v>
@@ -3381,7 +3381,7 @@
         <v>39</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>133</v>
@@ -3433,7 +3433,7 @@
         <v>39</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>136</v>
@@ -3485,7 +3485,7 @@
         <v>39</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>34</v>
@@ -3540,7 +3540,7 @@
         <v>39</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>165</v>
@@ -3592,7 +3592,7 @@
         <v>39</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>140</v>
@@ -3644,7 +3644,7 @@
         <v>39</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>160</v>
@@ -3696,7 +3696,7 @@
         <v>39</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>98</v>
@@ -3753,7 +3753,7 @@
         <v>39</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>129</v>
@@ -3805,7 +3805,7 @@
         <v>539</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>104</v>
@@ -3857,7 +3857,7 @@
         <v>39</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>170</v>
@@ -3910,7 +3910,7 @@
         <v>39</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>111</v>
@@ -3962,7 +3962,7 @@
         <v>39</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>102</v>
@@ -4015,7 +4015,7 @@
         <v>39</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>120</v>
@@ -4067,7 +4067,7 @@
         <v>39</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>473</v>
@@ -4111,7 +4111,7 @@
         <v>39</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>125</v>
@@ -4163,7 +4163,7 @@
         <v>39</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E27" s="18" t="s">
         <v>157</v>
@@ -4212,7 +4212,7 @@
         <v>39</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>154</v>
@@ -4264,7 +4264,7 @@
         <v>39</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E29" s="18" t="s">
         <v>90</v>
@@ -4323,7 +4323,7 @@
         <v>39</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E31" s="18" t="s">
         <v>26</v>
@@ -4375,7 +4375,7 @@
         <v>39</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E32" s="18" t="s">
         <v>30</v>
@@ -4424,7 +4424,7 @@
         <v>39</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E33" s="18" t="s">
         <v>48</v>
@@ -4470,7 +4470,7 @@
         <v>39</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E34" s="18" t="s">
         <v>49</v>
@@ -4516,7 +4516,7 @@
         <v>39</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E36" s="19" t="s">
         <v>78</v>
@@ -4562,7 +4562,7 @@
         <v>39</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E37" s="19" t="s">
         <v>499</v>
@@ -4606,7 +4606,7 @@
         <v>39</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>183</v>
@@ -4658,7 +4658,7 @@
         <v>39</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E39" s="18" t="s">
         <v>188</v>
@@ -4710,7 +4710,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E40" s="18" t="s">
         <v>191</v>
@@ -4762,7 +4762,7 @@
         <v>39</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E41" s="18" t="s">
         <v>196</v>
@@ -4827,7 +4827,7 @@
         <v>39</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E42" s="18" t="s">
         <v>477</v>
@@ -4870,7 +4870,7 @@
         <v>39</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E43" s="18" t="s">
         <v>209</v>
@@ -4916,15 +4916,15 @@
         <v>2</v>
       </c>
       <c r="D44" s="34" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I44" s="19"/>
       <c r="J44" s="19"/>
       <c r="K44" s="36" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="N44" s="1"/>
     </row>
@@ -4947,7 +4947,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E46" s="18" t="s">
         <v>356</v>
@@ -5002,7 +5002,7 @@
         <v>39</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E47" s="18" t="s">
         <v>361</v>
@@ -5111,7 +5111,7 @@
         <v>39</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E50" s="18" t="s">
         <v>47</v>
@@ -5160,7 +5160,7 @@
         <v>39</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E51" s="18" t="s">
         <v>46</v>
@@ -5269,7 +5269,7 @@
         <v>39</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E54" s="18" t="s">
         <v>221</v>
@@ -5329,7 +5329,7 @@
         <v>536</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E56" s="18" t="s">
         <v>541</v>
@@ -5397,7 +5397,7 @@
         <v>39</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E60" s="18" t="s">
         <v>237</v>
@@ -5457,7 +5457,7 @@
         <v>39</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E62" s="19" t="s">
         <v>479</v>
@@ -5553,13 +5553,13 @@
         <v>50</v>
       </c>
       <c r="B64" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>572</v>
+        <v>685</v>
       </c>
       <c r="E64" s="18" t="s">
         <v>255</v>
@@ -5584,7 +5584,7 @@
       </c>
       <c r="N64" s="1">
         <f t="shared" si="4"/>
-        <v>464</v>
+        <v>496</v>
       </c>
       <c r="O64" s="4" t="s">
         <v>461</v>
@@ -5608,7 +5608,7 @@
         <v>39</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E65" s="18" t="s">
         <v>264</v>
@@ -5660,7 +5660,7 @@
         <v>39</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E66" s="18" t="s">
         <v>243</v>
@@ -5712,7 +5712,7 @@
         <v>39</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E67" s="18" t="s">
         <v>251</v>
@@ -5764,7 +5764,7 @@
         <v>39</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E68" s="18" t="s">
         <v>441</v>
@@ -5810,16 +5810,16 @@
         <v>4</v>
       </c>
       <c r="D69" s="18" t="s">
+        <v>648</v>
+      </c>
+      <c r="E69" s="18" t="s">
         <v>649</v>
       </c>
-      <c r="E69" s="18" t="s">
+      <c r="F69" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="18" t="s">
         <v>650</v>
-      </c>
-      <c r="F69" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G69" s="18" t="s">
-        <v>651</v>
       </c>
       <c r="I69" s="19"/>
       <c r="J69" s="19"/>
@@ -5839,7 +5839,7 @@
         <v>536</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E70" s="18" t="s">
         <v>533</v>
@@ -5871,16 +5871,16 @@
         <v>2</v>
       </c>
       <c r="D71" s="21" t="s">
+        <v>655</v>
+      </c>
+      <c r="E71" s="22" t="s">
         <v>656</v>
       </c>
-      <c r="E71" s="22" t="s">
+      <c r="F71" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="22" t="s">
         <v>657</v>
-      </c>
-      <c r="F71" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" s="22" t="s">
-        <v>658</v>
       </c>
       <c r="I71" s="18"/>
       <c r="J71" s="18"/>
@@ -5901,7 +5901,7 @@
         <v>39</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E72" s="18" t="s">
         <v>444</v>
@@ -5954,7 +5954,7 @@
         <v>39</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E73" s="18" t="s">
         <v>259</v>
@@ -6006,7 +6006,7 @@
         <v>39</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E74" s="18" t="s">
         <v>445</v>
@@ -6059,7 +6059,7 @@
         <v>39</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E75" s="18" t="s">
         <v>449</v>
@@ -6109,7 +6109,7 @@
         <v>39</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E76" s="18" t="s">
         <v>267</v>
@@ -6161,7 +6161,7 @@
         <v>39</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E77" s="18" t="s">
         <v>294</v>
@@ -6211,7 +6211,7 @@
         <v>39</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E78" s="18" t="s">
         <v>247</v>
@@ -6260,7 +6260,7 @@
         <v>39</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E79" s="18" t="s">
         <v>281</v>
@@ -6313,7 +6313,7 @@
         <v>39</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E80" s="18" t="s">
         <v>450</v>
@@ -6365,7 +6365,7 @@
         <v>39</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E81" s="18" t="s">
         <v>307</v>
@@ -6418,7 +6418,7 @@
         <v>39</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E83" s="18" t="s">
         <v>451</v>
@@ -6464,16 +6464,16 @@
         <v>2</v>
       </c>
       <c r="D84" s="18" t="s">
+        <v>645</v>
+      </c>
+      <c r="E84" s="18" t="s">
         <v>646</v>
       </c>
-      <c r="E84" s="18" t="s">
+      <c r="F84" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="18" t="s">
         <v>647</v>
-      </c>
-      <c r="F84" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G84" s="18" t="s">
-        <v>648</v>
       </c>
       <c r="I84" s="19"/>
       <c r="J84" s="19"/>
@@ -6491,7 +6491,7 @@
         <v>39</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>277</v>
@@ -6556,7 +6556,7 @@
         <v>39</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>303</v>
@@ -6618,7 +6618,7 @@
         <v>39</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>273</v>
@@ -6673,7 +6673,7 @@
         <v>39</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E88" s="18" t="s">
         <v>271</v>
@@ -6729,7 +6729,7 @@
         <v>39</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E89" s="18" t="s">
         <v>295</v>
@@ -6761,10 +6761,10 @@
         <v>9</v>
       </c>
       <c r="D90" s="23" t="s">
+        <v>658</v>
+      </c>
+      <c r="E90" s="24" t="s">
         <v>659</v>
-      </c>
-      <c r="E90" s="24" t="s">
-        <v>660</v>
       </c>
       <c r="F90" s="24" t="s">
         <v>10</v>
@@ -7073,7 +7073,7 @@
         <v>39</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E98" s="18" t="s">
         <v>339</v>
@@ -7128,7 +7128,7 @@
         <v>39</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E99" s="18" t="s">
         <v>345</v>
@@ -7185,7 +7185,7 @@
         <v>39</v>
       </c>
       <c r="D100" s="18" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E100" s="18" t="s">
         <v>351</v>
@@ -7257,7 +7257,7 @@
         <v>39</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>364</v>
@@ -7362,7 +7362,7 @@
         <v>536</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E104" s="18" t="s">
         <v>545</v>
@@ -7393,7 +7393,7 @@
         <v>39</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E105" s="18" t="s">
         <v>374</v>
@@ -7446,7 +7446,7 @@
         <v>39</v>
       </c>
       <c r="D106" s="18" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E106" s="18" t="s">
         <v>380</v>
@@ -7551,7 +7551,7 @@
         <v>39</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E108" s="18" t="s">
         <v>388</v>
@@ -7604,7 +7604,7 @@
         <v>39</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E109" s="18" t="s">
         <v>393</v>
@@ -7657,7 +7657,7 @@
         <v>39</v>
       </c>
       <c r="D110" s="18" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E110" s="18" t="s">
         <v>398</v>
@@ -7712,7 +7712,7 @@
         <v>536</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E111" s="18" t="s">
         <v>385</v>
@@ -7956,7 +7956,7 @@
         <v>39</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E116" s="18" t="s">
         <v>421</v>
@@ -8008,7 +8008,7 @@
         <v>39</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E117" s="18" t="s">
         <v>426</v>
@@ -8184,10 +8184,10 @@
         <v>1</v>
       </c>
       <c r="D121" s="25" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E121" s="26" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J121" s="6" t="s">
         <v>182</v>
@@ -8200,10 +8200,10 @@
         <v>1</v>
       </c>
       <c r="D122" s="25" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E122" s="27" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="J122" s="6" t="s">
         <v>182</v>
@@ -8227,7 +8227,7 @@
         <v>39</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E124" s="19" t="s">
         <v>512</v>
@@ -8322,10 +8322,10 @@
         <v>148</v>
       </c>
       <c r="D127" s="12" t="s">
+        <v>664</v>
+      </c>
+      <c r="E127" s="28" t="s">
         <v>665</v>
-      </c>
-      <c r="E127" s="28" t="s">
-        <v>666</v>
       </c>
       <c r="I127" s="19"/>
       <c r="J127" s="19"/>
@@ -8345,10 +8345,10 @@
         <v>3</v>
       </c>
       <c r="D129" s="29" t="s">
+        <v>666</v>
+      </c>
+      <c r="E129" s="18" t="s">
         <v>667</v>
-      </c>
-      <c r="E129" s="18" t="s">
-        <v>668</v>
       </c>
       <c r="I129" s="19"/>
       <c r="J129" s="19"/>
@@ -8376,10 +8376,10 @@
         <v>18</v>
       </c>
       <c r="D132" s="37" t="s">
+        <v>679</v>
+      </c>
+      <c r="E132" s="38" t="s">
         <v>680</v>
-      </c>
-      <c r="E132" s="38" t="s">
-        <v>681</v>
       </c>
       <c r="N132" s="1"/>
       <c r="R132" s="3"/>
@@ -8395,7 +8395,7 @@
         <v>39</v>
       </c>
       <c r="D133" s="18" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E133" s="18" t="s">
         <v>66</v>
@@ -8557,22 +8557,22 @@
         <v>3</v>
       </c>
       <c r="D137" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="E137" s="18" t="s">
         <v>682</v>
       </c>
-      <c r="E137" s="18" t="s">
+      <c r="F137" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="18" t="s">
         <v>683</v>
-      </c>
-      <c r="F137" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="18" t="s">
-        <v>684</v>
       </c>
       <c r="H137" s="18" t="s">
         <v>50</v>
       </c>
       <c r="I137" s="6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="N137" s="1"/>
       <c r="R137" s="3"/>
@@ -8588,7 +8588,7 @@
         <v>39</v>
       </c>
       <c r="D138" s="18" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E138" s="18" t="s">
         <v>67</v>
@@ -8683,7 +8683,7 @@
         <v>2</v>
       </c>
       <c r="D140" s="30" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E140" s="18" t="s">
         <v>311</v>
@@ -8766,7 +8766,7 @@
         <v>1</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E142" s="13" t="s">
         <v>226</v>
@@ -8808,7 +8808,7 @@
         <v>1</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E143" s="13" t="s">
         <v>230</v>
@@ -8850,7 +8850,7 @@
         <v>2</v>
       </c>
       <c r="D144" s="33" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E144" s="18" t="s">
         <v>467</v>
@@ -8927,7 +8927,7 @@
         <v>1</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E146" s="13" t="s">
         <v>232</v>
@@ -8957,7 +8957,7 @@
         <v>1</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E147" s="13" t="s">
         <v>234</v>

--- a/Orcad/6089-103-REVA_summary_BOM.xlsx
+++ b/Orcad/6089-103-REVA_summary_BOM.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="686">
   <si>
     <t>Item</t>
   </si>
@@ -778,9 +778,6 @@
     <t>10K</t>
   </si>
   <si>
-    <t>RES SMD 49.9 OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
     <t>311-4.70KHRDKR-ND</t>
   </si>
   <si>
@@ -817,15 +814,6 @@
     <t>RESC_EIA0402</t>
   </si>
   <si>
-    <t>RES SMD 10 OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>311-10.0HRCT-ND</t>
-  </si>
-  <si>
-    <t>RC0603FR-0710RL</t>
-  </si>
-  <si>
     <t>RES SMD 3.74K OHM 1% 1/10W 0603</t>
   </si>
   <si>
@@ -1747,12 +1735,6 @@
     <t>R13,R19,R20,R30,R31,R69,R71,R102,R468,R469,R470,R471,R473,R475,R476,R676,R682</t>
   </si>
   <si>
-    <t>R27</t>
-  </si>
-  <si>
-    <t>R26,R70,R82,R86,R94,R108,R115,R134,R193,R194,R195,R196,R197,R198,R199,R200,R201,R202,R203,R204,R205,R206,R207,R208,R209,R210,R211,R212,R215,R216,R217,R218,R221,R222,R223,R224,R225,R226,R314,R315,R317,R318,R320,R321,R323,R324,R339,R340,R346,R347,R384,R386,R390,R392,R396,R397,R402,R403,R408,R423,R424,R425,R426,R431,R432,R433,R434,R436,R438,R444,R445,R446,R447,R458,R495,R499,R520,R525,R526,R528,R529,R530,R531,R532,R533,R536,R537,R538,R539,R589,R590,R592,R593,R595,R596,R598,R599,R668,R669,R670,R671,R672,R673,R685,R688,R691,R694,R697,R706,R707,R708,R709,R710,R711,R720,R721,R722,R723,R724,R725</t>
-  </si>
-  <si>
     <t>C14,C73,C91</t>
   </si>
   <si>
@@ -1771,9 +1753,6 @@
     <t>R329,R330,R331,R332,R579,R580,R581,R582</t>
   </si>
   <si>
-    <t>R11,R25,R72,R81,R83,R85,R92,R95,R98,R101,R107,R109,R113,R116,R123,R130,R133,R136</t>
-  </si>
-  <si>
     <t>R2,R7,R14,R15,R16,R17,R21,R22,R23,R24,R93,R96,R103,R104,R105,R106,R114,R118,R122,R124,R126,R128,R135,R140,R144,R148,R149,R313,R316,R319,R322,R405,R407,R409,R413,R422,R443,R453,R454,R455,R456,R457,R460,R484,R498,R501,R591,R594,R597,R600,R647,R648,R649,R653,R654,R658,R659,R666,R667,R704,R705,R712,R713</t>
   </si>
   <si>
@@ -1967,15 +1946,6 @@
   </si>
   <si>
     <t>311-47.0KHRDKR-ND</t>
-  </si>
-  <si>
-    <t>R1,R6,R677,R678</t>
-  </si>
-  <si>
-    <t>RES SMD 150 OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>311-150HRDKR-ND</t>
   </si>
   <si>
     <t>C18,C26,C28,C30,C32,C33,C34,C35,C48,C49,C50,C51,C52,C53,C54,C55,C56,C57,C58,C59,C60,C61,C62,C63,C64,C65,C66,C67,C68,C69,C70,C71,C72,C74,C75,C76,C77,C79,C80,C81,C82,C85,C87,C88,C89,C311,C312,C313,C314,C317,C318,C319,C320,C321,C322,C323,C324,C325,C326,C327,C328,C329,C330,C331,C332,C333,C334,C335,C336,C337,C338,C339,C340,C341,C342,C343,C344,C345,C346,C347,C348,C361,C362,C363,C364,C366,C370,C374,C378,C479,C480,C491,C506,C527,C548,C829,C833,C835,C858,C960,C962,C963,C968,
@@ -2006,12 +1976,6 @@
     <t>TNP249ABCT-ND</t>
   </si>
   <si>
-    <t>R3,R4,R5,R8,R9,R10,R679,R680,R681</t>
-  </si>
-  <si>
-    <t>RES SMD TBD 0603</t>
-  </si>
-  <si>
     <t>U65</t>
   </si>
   <si>
@@ -2088,6 +2052,42 @@
   </si>
   <si>
     <t>R337,R338,R342,R343,R379,R381,R387,R389,R393,R394,R399,R400,R418,R419,R420,R421,R427,R428,R429,R430,R435,R437,R439,R440,R441,R442,R451,R459,R463,R464,R477,R478,R482,R488,R518,R521,R522,R523,R527,R535,R660,R661,R662,R663,R664,R665,R698,R699,R700,R701,R702,R703,R714,R715,R716,R717,R718,R719,R726,R727,R728,R729</t>
+  </si>
+  <si>
+    <t>RES SMD 270 OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>311-270HRDKR-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-07270RL</t>
+  </si>
+  <si>
+    <t>RES SMD 59 OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>311-59.0HRDKR-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-0759RL</t>
+  </si>
+  <si>
+    <t>RES SMD 49.9 OHM 1% 1/10W 0402</t>
+  </si>
+  <si>
+    <t>R3,R4,R8,R9,R679,R680</t>
+  </si>
+  <si>
+    <t>R1,R5,R6,R10,R677,R678,R681</t>
+  </si>
+  <si>
+    <t>R11,R25,R27,R72,R81,R83,R85,R92,R95,R98,R101,R107,R109,R113,R116,R123,R130,R133,R136</t>
+  </si>
+  <si>
+    <t>R194,R195,R198,R199,R202,R203,R206,R207,R210,R211</t>
+  </si>
+  <si>
+    <t>R26,R70,R82,R86,R94,R108,R115,R134,R193,R196,R197,R200,R201,R204,R205,R208,R209,R212,R215,R216,R217,R218,R221,R222,R223,R224,R225,R226,R314,R315,R317,R318,R320,R321,R323,R324,R339,R340,R346,R347,R384,R386,R390,R392,R396,R397,R402,R403,R408,R423,R424,R425,R426,R431,R432,R433,R434,R436,R438,R444,R445,R446,R447,R458,R495,R499,R520,R525,R526,R528,R529,R530,R531,R532,R533,R536,R537,R538,R539,R589,R590,R592,R593,R595,R596,R598,R599,R668,R669,R670,R671,R672,R673,R685,R688,R691,R694,R697,R706,R707,R708,R709,R710,R711,R720,R721,R722,R723,R724,R725</t>
   </si>
 </sst>
 </file>
@@ -2614,7 +2614,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2673,8 +2673,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3038,11 +3036,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC162"/>
+  <dimension ref="A1:AC163"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
+      <pane ySplit="5" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3092,10 +3090,10 @@
         <v>13</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>1</v>
@@ -3154,11 +3152,11 @@
       <c r="B7" s="10">
         <v>1</v>
       </c>
-      <c r="D7" s="31" t="s">
-        <v>673</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>674</v>
+      <c r="D7" s="29" t="s">
+        <v>661</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>662</v>
       </c>
       <c r="F7" s="19"/>
     </row>
@@ -3173,22 +3171,22 @@
         <v>39</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="H8" s="18" t="s">
         <v>167</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="J8" s="19" t="s">
         <v>176</v>
@@ -3225,7 +3223,7 @@
         <v>39</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>142</v>
@@ -3277,7 +3275,7 @@
         <v>39</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>177</v>
@@ -3329,7 +3327,7 @@
         <v>39</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>148</v>
@@ -3381,7 +3379,7 @@
         <v>39</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>133</v>
@@ -3433,7 +3431,7 @@
         <v>39</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>136</v>
@@ -3485,7 +3483,7 @@
         <v>39</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>34</v>
@@ -3540,7 +3538,7 @@
         <v>39</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>165</v>
@@ -3592,7 +3590,7 @@
         <v>39</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>140</v>
@@ -3644,7 +3642,7 @@
         <v>39</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>160</v>
@@ -3696,7 +3694,7 @@
         <v>39</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>98</v>
@@ -3753,7 +3751,7 @@
         <v>39</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>129</v>
@@ -3802,10 +3800,10 @@
         <v>228</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>104</v>
@@ -3857,7 +3855,7 @@
         <v>39</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>170</v>
@@ -3910,7 +3908,7 @@
         <v>39</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>111</v>
@@ -3962,7 +3960,7 @@
         <v>39</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>102</v>
@@ -4015,7 +4013,7 @@
         <v>39</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>120</v>
@@ -4067,28 +4065,28 @@
         <v>39</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="H25" s="18" t="s">
         <v>172</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>119</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="N25" s="1">
         <f t="shared" si="0"/>
@@ -4111,7 +4109,7 @@
         <v>39</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>125</v>
@@ -4163,7 +4161,7 @@
         <v>39</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="E27" s="18" t="s">
         <v>157</v>
@@ -4212,7 +4210,7 @@
         <v>39</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>154</v>
@@ -4264,7 +4262,7 @@
         <v>39</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="E29" s="18" t="s">
         <v>90</v>
@@ -4323,7 +4321,7 @@
         <v>39</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="E31" s="18" t="s">
         <v>26</v>
@@ -4375,7 +4373,7 @@
         <v>39</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="E32" s="18" t="s">
         <v>30</v>
@@ -4424,7 +4422,7 @@
         <v>39</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="E33" s="18" t="s">
         <v>48</v>
@@ -4470,7 +4468,7 @@
         <v>39</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="E34" s="18" t="s">
         <v>49</v>
@@ -4516,7 +4514,7 @@
         <v>39</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="E36" s="19" t="s">
         <v>78</v>
@@ -4562,28 +4560,28 @@
         <v>39</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F37" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="H37" s="18" t="s">
         <v>198</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="J37" s="19" t="s">
         <v>207</v>
       </c>
       <c r="K37" s="18" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="N37" s="1">
         <f t="shared" si="2"/>
@@ -4606,7 +4604,7 @@
         <v>39</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>183</v>
@@ -4658,7 +4656,7 @@
         <v>39</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="E39" s="18" t="s">
         <v>188</v>
@@ -4667,7 +4665,7 @@
         <v>10</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="H39" s="18" t="s">
         <v>3</v>
@@ -4710,7 +4708,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="E40" s="18" t="s">
         <v>191</v>
@@ -4725,7 +4723,7 @@
         <v>3</v>
       </c>
       <c r="I40" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="J40" s="19" t="s">
         <v>194</v>
@@ -4762,7 +4760,7 @@
         <v>39</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="E41" s="18" t="s">
         <v>196</v>
@@ -4827,16 +4825,16 @@
         <v>39</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F42" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="H42" s="18" t="s">
         <v>198</v>
@@ -4870,7 +4868,7 @@
         <v>39</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="E43" s="18" t="s">
         <v>209</v>
@@ -4915,16 +4913,16 @@
       <c r="B44" s="10">
         <v>2</v>
       </c>
-      <c r="D44" s="34" t="s">
-        <v>676</v>
-      </c>
-      <c r="E44" s="35" t="s">
-        <v>678</v>
+      <c r="D44" s="32" t="s">
+        <v>664</v>
+      </c>
+      <c r="E44" s="33" t="s">
+        <v>666</v>
       </c>
       <c r="I44" s="19"/>
       <c r="J44" s="19"/>
-      <c r="K44" s="36" t="s">
-        <v>677</v>
+      <c r="K44" s="34" t="s">
+        <v>665</v>
       </c>
       <c r="N44" s="1"/>
     </row>
@@ -4947,28 +4945,28 @@
         <v>39</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F46" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H46" s="18" t="s">
         <v>11</v>
       </c>
       <c r="I46" s="19" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="J46" s="19" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="K46" s="18" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="N46" s="1">
         <f>NUM_BOARDS*B46</f>
@@ -4978,7 +4976,7 @@
         <v>15</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="Q46" s="11">
         <v>1.6140000000000001</v>
@@ -4988,7 +4986,7 @@
         <v>24.21</v>
       </c>
       <c r="S46" s="4" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
@@ -5002,28 +5000,28 @@
         <v>39</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F47" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H47" s="18" t="s">
         <v>11</v>
       </c>
       <c r="I47" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J47" s="19" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="K47" s="18" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="N47" s="1">
         <f>NUM_BOARDS*B47</f>
@@ -5033,7 +5031,7 @@
         <v>15</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="Q47" s="11">
         <v>1.024</v>
@@ -5043,7 +5041,7 @@
         <v>15.36</v>
       </c>
       <c r="S47" s="4" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
@@ -5062,28 +5060,28 @@
         <v>39</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F49" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="I49" s="19" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="J49" s="19" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="K49" s="18" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="N49" s="1">
         <f>NUM_BOARDS*B49</f>
@@ -5111,7 +5109,7 @@
         <v>39</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="E50" s="18" t="s">
         <v>47</v>
@@ -5160,7 +5158,7 @@
         <v>39</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="E51" s="18" t="s">
         <v>46</v>
@@ -5217,7 +5215,7 @@
         <v>39</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="E53" s="18" t="s">
         <v>215</v>
@@ -5269,7 +5267,7 @@
         <v>39</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="E54" s="18" t="s">
         <v>221</v>
@@ -5326,25 +5324,25 @@
         <v>4</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F56" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="H56" s="18" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="I56" s="18" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="17"/>
@@ -5354,22 +5352,22 @@
         <v>3</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="F57" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="18" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="H57" s="18" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="I57" s="18" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="N57" s="1"/>
     </row>
@@ -5397,7 +5395,7 @@
         <v>39</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="E60" s="18" t="s">
         <v>237</v>
@@ -5438,7 +5436,7 @@
         <v>35.520000000000003</v>
       </c>
       <c r="S60" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.25">
@@ -5457,36 +5455,36 @@
         <v>39</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F62" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="H62" s="18" t="s">
         <v>167</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="K62" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N62" s="1">
-        <f t="shared" ref="N62:N68" si="4">NUM_BOARDS*B62</f>
+        <f t="shared" ref="N62:N67" si="4">NUM_BOARDS*B62</f>
         <v>48</v>
       </c>
       <c r="O62" s="17"/>
       <c r="P62" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="Q62" s="11">
         <v>0.35520000000000002</v>
@@ -5507,25 +5505,25 @@
         <v>39</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E63" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="F63" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="18" t="s">
         <v>255</v>
-      </c>
-      <c r="F63" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" s="18" t="s">
-        <v>256</v>
       </c>
       <c r="H63" s="18" t="s">
         <v>167</v>
       </c>
       <c r="I63" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="J63" s="19" t="s">
         <v>257</v>
-      </c>
-      <c r="J63" s="19" t="s">
-        <v>258</v>
       </c>
       <c r="K63" s="18" t="s">
         <v>246</v>
@@ -5535,16 +5533,16 @@
         <v>272</v>
       </c>
       <c r="O63" s="10" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="P63" s="10">
         <v>5000</v>
       </c>
       <c r="Q63" s="11" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="R63" s="11" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AC63" s="14"/>
     </row>
@@ -5559,22 +5557,22 @@
         <v>39</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="E64" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="F64" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="18" t="s">
         <v>255</v>
-      </c>
-      <c r="F64" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="18" t="s">
-        <v>256</v>
       </c>
       <c r="H64" s="18" t="s">
         <v>167</v>
       </c>
       <c r="I64" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J64" s="19">
         <v>0</v>
@@ -5587,7 +5585,7 @@
         <v>496</v>
       </c>
       <c r="O64" s="4" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="P64" s="10">
         <v>5000</v>
@@ -5599,803 +5597,730 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B65" s="10">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>574</v>
+        <v>683</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="F65" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="H65" s="18" t="s">
         <v>167</v>
       </c>
       <c r="I65" s="19" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="J65" s="19">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="K65" s="18" t="s">
         <v>246</v>
       </c>
       <c r="N65" s="1">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>152</v>
       </c>
       <c r="O65" s="10">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="P65" s="10">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="Q65" s="11">
-        <v>8.7999999999999995E-2</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="R65" s="11">
         <f>O65*Q65</f>
-        <v>8.7999999999999989</v>
+        <v>14.499999999999998</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="10">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B66" s="10">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>582</v>
+        <v>636</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>243</v>
+        <v>680</v>
       </c>
       <c r="F66" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>244</v>
+        <v>296</v>
       </c>
       <c r="H66" s="18" t="s">
         <v>167</v>
       </c>
       <c r="I66" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="J66" s="19">
-        <v>33</v>
+        <v>297</v>
+      </c>
+      <c r="J66" s="19" t="s">
+        <v>298</v>
       </c>
       <c r="K66" s="18" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="N66" s="1">
         <f t="shared" si="4"/>
-        <v>144</v>
+        <v>1104</v>
       </c>
       <c r="O66" s="10">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P66" s="10">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q66" s="11">
-        <v>2.8999999999999998E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="R66" s="11">
         <f>O66*Q66</f>
-        <v>14.499999999999998</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B67" s="10">
-        <v>138</v>
+        <v>49</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>251</v>
+        <v>437</v>
       </c>
       <c r="F67" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>300</v>
+        <v>438</v>
       </c>
       <c r="H67" s="18" t="s">
         <v>167</v>
       </c>
       <c r="I67" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="J67" s="19" t="s">
-        <v>302</v>
+        <v>439</v>
+      </c>
+      <c r="J67" s="19">
+        <v>100</v>
       </c>
       <c r="K67" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N67" s="1">
         <f t="shared" si="4"/>
-        <v>1104</v>
-      </c>
-      <c r="O67" s="10">
-        <v>10000</v>
-      </c>
-      <c r="P67" s="10">
-        <v>10000</v>
+        <v>392</v>
+      </c>
+      <c r="O67" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P67" s="1">
+        <v>1000</v>
       </c>
       <c r="Q67" s="11">
-        <v>1.8E-3</v>
+        <v>0.06</v>
       </c>
       <c r="R67" s="11">
         <f>O67*Q67</f>
-        <v>18</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="10">
-        <v>54</v>
-      </c>
-      <c r="B68" s="10">
-        <v>49</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D68" s="18" t="s">
-        <v>642</v>
-      </c>
-      <c r="E68" s="18" t="s">
-        <v>441</v>
-      </c>
-      <c r="F68" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G68" s="18" t="s">
-        <v>442</v>
-      </c>
-      <c r="H68" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="I68" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="J68" s="19">
-        <v>100</v>
-      </c>
-      <c r="K68" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="N68" s="1">
-        <f t="shared" si="4"/>
-        <v>392</v>
-      </c>
-      <c r="O68" s="1">
-        <v>1000</v>
-      </c>
-      <c r="P68" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Q68" s="11">
-        <v>0.06</v>
-      </c>
-      <c r="R68" s="11">
-        <f>O68*Q68</f>
-        <v>60</v>
-      </c>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="18"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B69" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>648</v>
+        <v>681</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>649</v>
+        <v>677</v>
       </c>
       <c r="F69" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="18" t="s">
-        <v>650</v>
-      </c>
-      <c r="I69" s="19"/>
-      <c r="J69" s="19"/>
-      <c r="K69" s="18"/>
+        <v>678</v>
+      </c>
+      <c r="H69" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="I69" s="19" t="s">
+        <v>679</v>
+      </c>
+      <c r="J69" s="19">
+        <v>59</v>
+      </c>
+      <c r="K69" s="18" t="s">
+        <v>246</v>
+      </c>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="18">
-        <v>65</v>
-      </c>
-      <c r="B70" s="18">
-        <v>6</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>536</v>
+      <c r="B70" s="10">
+        <v>7</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>579</v>
+        <v>682</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>533</v>
+        <v>674</v>
       </c>
       <c r="F70" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>534</v>
+        <v>675</v>
       </c>
       <c r="H70" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="I70" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="J70" s="18">
-        <v>240</v>
-      </c>
-      <c r="K70" s="18"/>
+      <c r="I70" s="19" t="s">
+        <v>676</v>
+      </c>
+      <c r="J70" s="19">
+        <v>270</v>
+      </c>
+      <c r="K70" s="18" t="s">
+        <v>246</v>
+      </c>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
-      <c r="S70" s="4"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="18"/>
+      <c r="A71" s="18">
+        <v>65</v>
+      </c>
       <c r="B71" s="18">
-        <v>2</v>
-      </c>
-      <c r="D71" s="21" t="s">
-        <v>655</v>
-      </c>
-      <c r="E71" s="22" t="s">
-        <v>656</v>
-      </c>
-      <c r="F71" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" s="22" t="s">
-        <v>657</v>
-      </c>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="18"/>
+        <v>6</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>573</v>
+      </c>
+      <c r="E71" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="F71" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="H71" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="I71" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="J71" s="18">
+        <v>240</v>
+      </c>
+      <c r="K71" s="18" t="s">
+        <v>262</v>
+      </c>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
       <c r="S71" s="4"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="10">
-        <v>55</v>
-      </c>
-      <c r="B72" s="10">
-        <v>8</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D72" s="18" t="s">
-        <v>581</v>
-      </c>
-      <c r="E72" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="F72" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G72" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="H72" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="I72" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="J72" s="19">
-        <v>300</v>
-      </c>
-      <c r="K72" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="N72" s="1">
-        <f t="shared" ref="N72:N81" si="5">NUM_BOARDS*B72</f>
-        <v>64</v>
-      </c>
-      <c r="O72" s="1">
-        <v>5000</v>
-      </c>
-      <c r="P72" s="1">
-        <v>5000</v>
-      </c>
-      <c r="Q72" s="11">
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="R72" s="11">
-        <f t="shared" ref="R72:R81" si="6">O72*Q72</f>
-        <v>14.499999999999998</v>
-      </c>
+      <c r="A72" s="18"/>
+      <c r="B72" s="18">
+        <v>2</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>645</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>646</v>
+      </c>
+      <c r="F72" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="22" t="s">
+        <v>647</v>
+      </c>
+      <c r="I72" s="18"/>
+      <c r="J72" s="18"/>
+      <c r="K72" s="18"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
       <c r="S72" s="4"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="10">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B73" s="10">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C73" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>259</v>
+        <v>440</v>
       </c>
       <c r="F73" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="18" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="H73" s="18" t="s">
         <v>167</v>
       </c>
       <c r="I73" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="J73" s="19">
+        <v>300</v>
+      </c>
+      <c r="K73" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="N73" s="1">
+        <f t="shared" ref="N73:N83" si="5">NUM_BOARDS*B73</f>
+        <v>64</v>
+      </c>
+      <c r="O73" s="1">
+        <v>5000</v>
+      </c>
+      <c r="P73" s="1">
+        <v>5000</v>
+      </c>
+      <c r="Q73" s="11">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="R73" s="11">
+        <f t="shared" ref="R73:R83" si="6">O73*Q73</f>
+        <v>14.499999999999998</v>
+      </c>
+      <c r="S73" s="4"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74" s="10">
+        <v>56</v>
+      </c>
+      <c r="B74" s="10">
+        <v>17</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D74" s="18" t="s">
+        <v>569</v>
+      </c>
+      <c r="E74" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="F74" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="H74" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="I74" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="J74" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="J73" s="19" t="s">
+      <c r="K74" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="K73" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="N73" s="1">
+      <c r="N74" s="1">
         <f t="shared" si="5"/>
         <v>136</v>
       </c>
-      <c r="O73" s="10">
+      <c r="O74" s="10">
         <v>10000</v>
       </c>
-      <c r="P73" s="10">
+      <c r="P74" s="10">
         <v>10000</v>
       </c>
-      <c r="Q73" s="11">
+      <c r="Q74" s="11">
         <v>1.8E-3</v>
       </c>
-      <c r="R73" s="11">
+      <c r="R74" s="11">
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="10">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75" s="10">
         <v>57</v>
       </c>
-      <c r="B74" s="10">
+      <c r="B75" s="10">
         <v>92</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D74" s="18" t="s">
-        <v>578</v>
-      </c>
-      <c r="E74" s="18" t="s">
-        <v>445</v>
-      </c>
-      <c r="F74" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G74" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="H74" s="18" t="s">
+      <c r="D75" s="18" t="s">
+        <v>572</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="F75" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="H75" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="I74" s="19" t="s">
-        <v>447</v>
-      </c>
-      <c r="J74" s="19" t="s">
-        <v>448</v>
-      </c>
-      <c r="K74" s="18" t="s">
+      <c r="I75" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="J75" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="K75" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="N74" s="1">
+      <c r="N75" s="1">
         <f t="shared" si="5"/>
         <v>736</v>
       </c>
-      <c r="O74" s="1">
+      <c r="O75" s="1">
         <v>5000</v>
       </c>
-      <c r="P74" s="1">
+      <c r="P75" s="1">
         <v>5000</v>
       </c>
-      <c r="Q74" s="11">
+      <c r="Q75" s="11">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="R74" s="11">
+      <c r="R75" s="11">
         <f t="shared" si="6"/>
         <v>14.499999999999998</v>
       </c>
-      <c r="S74" s="4"/>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="10">
+      <c r="S75" s="4"/>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76" s="10">
         <v>58</v>
       </c>
-      <c r="B75" s="10">
+      <c r="B76" s="10">
         <v>50</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C76" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D75" s="18" t="s">
-        <v>580</v>
-      </c>
-      <c r="E75" s="18" t="s">
-        <v>449</v>
-      </c>
-      <c r="F75" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G75" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="H75" s="18" t="s">
+      <c r="D76" s="18" t="s">
+        <v>574</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="F76" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="H76" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="I75" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="J75" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="K75" s="18" t="s">
+      <c r="I76" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="J76" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="K76" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="N75" s="1">
+      <c r="N76" s="1">
         <f t="shared" si="5"/>
         <v>400</v>
       </c>
-      <c r="O75" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="P75" s="10">
+      <c r="O76" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="P76" s="10">
         <v>5000</v>
       </c>
-      <c r="R75" s="11" t="e">
+      <c r="R76" s="11" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="S75" s="4"/>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="10">
+      <c r="S76" s="4"/>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77" s="10">
         <v>59</v>
       </c>
-      <c r="B76" s="10">
+      <c r="B77" s="10">
         <v>12</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C77" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D76" s="18" t="s">
-        <v>623</v>
-      </c>
-      <c r="E76" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="F76" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G76" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="H76" s="18" t="s">
+      <c r="D77" s="18" t="s">
+        <v>616</v>
+      </c>
+      <c r="E77" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="F77" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="H77" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="I76" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="J76" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="K76" s="18" t="s">
+      <c r="I77" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="J77" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="K77" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="N76" s="1">
+      <c r="N77" s="1">
         <f t="shared" si="5"/>
         <v>96</v>
       </c>
-      <c r="O76" s="10">
+      <c r="O77" s="10">
         <v>200</v>
       </c>
-      <c r="P76" s="10">
+      <c r="P77" s="10">
         <v>200</v>
       </c>
-      <c r="Q76" s="11">
+      <c r="Q77" s="11">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="R76" s="11">
+      <c r="R77" s="11">
         <f t="shared" si="6"/>
         <v>11.799999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="10">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78" s="10">
         <v>60</v>
       </c>
-      <c r="B77" s="10">
+      <c r="B78" s="10">
         <v>63</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C78" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D77" s="18" t="s">
-        <v>583</v>
-      </c>
-      <c r="E77" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="F77" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G77" s="18" t="s">
+      <c r="D78" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="E78" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="F78" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="H78" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="I78" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="H77" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="I77" s="19" t="s">
+      <c r="J78" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="J77" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="K77" s="18" t="s">
+      <c r="K78" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="N77" s="1">
+      <c r="N78" s="1">
         <f t="shared" si="5"/>
         <v>504</v>
       </c>
-      <c r="O77" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="P77" s="1">
-        <v>5000</v>
-      </c>
-      <c r="R77" s="11" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S77" s="4"/>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="10">
-        <v>61</v>
-      </c>
-      <c r="B78" s="10">
-        <v>120</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D78" s="18" t="s">
-        <v>575</v>
-      </c>
-      <c r="E78" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="F78" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G78" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="H78" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="I78" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="J78" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="K78" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="N78" s="1">
-        <f t="shared" si="5"/>
-        <v>960</v>
-      </c>
       <c r="O78" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="P78" s="10">
+        <v>457</v>
+      </c>
+      <c r="P78" s="1">
         <v>5000</v>
       </c>
       <c r="R78" s="11" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
+      <c r="S78" s="4"/>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="10">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B79" s="10">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="C79" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>620</v>
+        <v>685</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="F79" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="H79" s="18" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="I79" s="19" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="J79" s="19" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="K79" s="18" t="s">
         <v>246</v>
       </c>
       <c r="N79" s="1">
         <f t="shared" si="5"/>
-        <v>32</v>
-      </c>
-      <c r="O79" s="1">
-        <v>100</v>
-      </c>
-      <c r="P79" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q79" s="11">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="R79" s="11">
+        <v>880</v>
+      </c>
+      <c r="O79" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="P79" s="10">
+        <v>5000</v>
+      </c>
+      <c r="R79" s="11" t="e">
         <f t="shared" si="6"/>
-        <v>17.299999999999997</v>
-      </c>
-      <c r="S79" s="4"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="10">
-        <v>63</v>
-      </c>
       <c r="B80" s="10">
-        <v>4</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>622</v>
+        <v>684</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>450</v>
+        <v>247</v>
       </c>
       <c r="F80" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="18" t="s">
-        <v>291</v>
+        <v>248</v>
       </c>
       <c r="H80" s="18" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="I80" s="19" t="s">
-        <v>292</v>
+        <v>249</v>
       </c>
       <c r="J80" s="19" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="K80" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="N80" s="1">
+      <c r="N80" s="1"/>
+      <c r="O80" s="4"/>
+    </row>
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A81" s="10">
+        <v>62</v>
+      </c>
+      <c r="B81" s="10">
+        <v>4</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>613</v>
+      </c>
+      <c r="E81" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="F81" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="H81" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="I81" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="J81" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="K81" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="N81" s="1">
         <f t="shared" si="5"/>
         <v>32</v>
       </c>
-      <c r="O80" s="10">
+      <c r="O81" s="1">
         <v>100</v>
       </c>
-      <c r="P80" s="10">
-        <v>100</v>
-      </c>
-      <c r="Q80" s="11">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="R80" s="11">
-        <f t="shared" si="6"/>
-        <v>17.299999999999997</v>
-      </c>
-    </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A81" s="10">
-        <v>64</v>
-      </c>
-      <c r="B81" s="10">
-        <v>1</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D81" s="18" t="s">
-        <v>624</v>
-      </c>
-      <c r="E81" s="18" t="s">
-        <v>307</v>
-      </c>
-      <c r="F81" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" s="18" t="s">
-        <v>308</v>
-      </c>
-      <c r="H81" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="I81" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="J81" s="19" t="s">
-        <v>310</v>
-      </c>
-      <c r="K81" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="N81" s="1">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="O81" s="10">
-        <v>100</v>
-      </c>
-      <c r="P81" s="10">
+      <c r="P81" s="1">
         <v>100</v>
       </c>
       <c r="Q81" s="11">
@@ -6407,209 +6332,187 @@
       </c>
       <c r="S81" s="4"/>
     </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A82" s="10">
+        <v>63</v>
+      </c>
+      <c r="B82" s="10">
+        <v>4</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>615</v>
+      </c>
+      <c r="E82" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="F82" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="H82" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="I82" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="J82" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="K82" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="N82" s="1">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="O82" s="10">
+        <v>100</v>
+      </c>
+      <c r="P82" s="10">
+        <v>100</v>
+      </c>
+      <c r="Q82" s="11">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="R82" s="11">
+        <f t="shared" si="6"/>
+        <v>17.299999999999997</v>
+      </c>
+    </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A83" s="10">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B83" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C83" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>451</v>
+        <v>303</v>
       </c>
       <c r="F83" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="18" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="H83" s="18" t="s">
-        <v>288</v>
+        <v>122</v>
       </c>
       <c r="I83" s="19" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="J83" s="19" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="K83" s="18" t="s">
         <v>246</v>
       </c>
       <c r="N83" s="1">
-        <f>NUM_BOARDS*B83</f>
-        <v>32</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="O83" s="10">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="P83" s="10">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="Q83" s="11">
-        <v>0.879</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="R83" s="11">
-        <f>O83*Q83</f>
-        <v>43.95</v>
-      </c>
-    </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B84" s="10">
-        <v>2</v>
-      </c>
-      <c r="D84" s="18" t="s">
-        <v>645</v>
-      </c>
-      <c r="E84" s="18" t="s">
-        <v>646</v>
-      </c>
-      <c r="F84" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G84" s="18" t="s">
-        <v>647</v>
-      </c>
-      <c r="I84" s="19"/>
-      <c r="J84" s="19"/>
-      <c r="K84" s="18"/>
-      <c r="N84" s="1"/>
+        <f t="shared" si="6"/>
+        <v>17.299999999999997</v>
+      </c>
+      <c r="S83" s="4"/>
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85" s="10">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B85" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C85" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>277</v>
+        <v>447</v>
       </c>
       <c r="F85" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="18" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="H85" s="18" t="s">
-        <v>122</v>
+        <v>284</v>
       </c>
       <c r="I85" s="19" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="J85" s="19" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="K85" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
       <c r="N85" s="1">
         <f>NUM_BOARDS*B85</f>
-        <v>8</v>
-      </c>
-      <c r="O85" s="1">
-        <v>100</v>
-      </c>
-      <c r="P85" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q85" s="3">
-        <v>0.17299999999999999</v>
+        <v>32</v>
+      </c>
+      <c r="O85" s="10">
+        <v>50</v>
+      </c>
+      <c r="P85" s="10">
+        <v>50</v>
+      </c>
+      <c r="Q85" s="11">
+        <v>0.879</v>
       </c>
       <c r="R85" s="11">
         <f>O85*Q85</f>
-        <v>17.299999999999997</v>
-      </c>
-      <c r="S85" s="4"/>
-      <c r="T85" s="2"/>
-      <c r="U85" s="2"/>
-      <c r="V85" s="2"/>
-      <c r="W85" s="2"/>
-      <c r="X85" s="2"/>
-      <c r="Y85" s="2"/>
-      <c r="Z85" s="2"/>
-      <c r="AA85" s="2"/>
-      <c r="AB85" s="2"/>
-      <c r="AC85" s="2"/>
+        <v>43.95</v>
+      </c>
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A86" s="10">
-        <v>67</v>
-      </c>
       <c r="B86" s="10">
-        <v>1</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>619</v>
+        <v>638</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>303</v>
+        <v>639</v>
       </c>
       <c r="F86" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="18" t="s">
-        <v>304</v>
-      </c>
-      <c r="H86" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="I86" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="J86" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="K86" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="N86" s="1">
-        <f>NUM_BOARDS*B86</f>
-        <v>8</v>
-      </c>
-      <c r="O86" s="10">
-        <v>100</v>
-      </c>
-      <c r="P86" s="10">
-        <v>100</v>
-      </c>
-      <c r="Q86" s="3">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="R86" s="11">
-        <f>O86*Q86</f>
-        <v>17.299999999999997</v>
-      </c>
-      <c r="T86" s="2"/>
-      <c r="U86" s="2"/>
-      <c r="V86" s="2"/>
-      <c r="W86" s="2"/>
-      <c r="X86" s="2"/>
-      <c r="Y86" s="2"/>
-      <c r="Z86" s="2"/>
-      <c r="AA86" s="2"/>
-      <c r="AB86" s="2"/>
-      <c r="AC86" s="2"/>
+        <v>640</v>
+      </c>
+      <c r="I86" s="19"/>
+      <c r="J86" s="19"/>
+      <c r="K86" s="18"/>
+      <c r="N86" s="1"/>
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A87" s="10">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B87" s="10">
         <v>1</v>
@@ -6618,7 +6521,7 @@
         <v>39</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>273</v>
@@ -6630,7 +6533,7 @@
         <v>274</v>
       </c>
       <c r="H87" s="18" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="I87" s="19" t="s">
         <v>275</v>
@@ -6654,59 +6557,75 @@
         <v>100</v>
       </c>
       <c r="Q87" s="3">
-        <v>0.46500000000000002</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="R87" s="11">
         <f>O87*Q87</f>
-        <v>46.5</v>
+        <v>17.299999999999997</v>
       </c>
       <c r="S87" s="4"/>
+      <c r="T87" s="2"/>
+      <c r="U87" s="2"/>
+      <c r="V87" s="2"/>
+      <c r="W87" s="2"/>
+      <c r="X87" s="2"/>
+      <c r="Y87" s="2"/>
+      <c r="Z87" s="2"/>
+      <c r="AA87" s="2"/>
+      <c r="AB87" s="2"/>
+      <c r="AC87" s="2"/>
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A88" s="10">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B88" s="10">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C88" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>637</v>
+        <v>612</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="F88" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="18" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="H88" s="18" t="s">
-        <v>272</v>
+        <v>122</v>
       </c>
       <c r="I88" s="19" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="J88" s="19" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="K88" s="18" t="s">
         <v>246</v>
       </c>
       <c r="N88" s="1">
         <f>NUM_BOARDS*B88</f>
-        <v>144</v>
-      </c>
-      <c r="O88" s="1"/>
-      <c r="P88" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="O88" s="10">
+        <v>100</v>
+      </c>
+      <c r="P88" s="10">
+        <v>100</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0.17299999999999999</v>
+      </c>
       <c r="R88" s="11">
         <f>O88*Q88</f>
-        <v>0</v>
-      </c>
-      <c r="S88" s="4"/>
+        <v>17.299999999999997</v>
+      </c>
       <c r="T88" s="2"/>
       <c r="U88" s="2"/>
       <c r="V88" s="2"/>
@@ -6720,326 +6639,364 @@
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A89" s="10">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B89" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C89" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D89" s="20" t="s">
-        <v>654</v>
+      <c r="D89" s="18" t="s">
+        <v>600</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="F89" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I89" s="19"/>
+      <c r="G89" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="H89" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I89" s="19" t="s">
+        <v>271</v>
+      </c>
       <c r="J89" s="19" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="K89" s="18" t="s">
-        <v>263</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
       <c r="N89" s="1">
         <f>NUM_BOARDS*B89</f>
-        <v>16</v>
-      </c>
-      <c r="O89" s="1"/>
-      <c r="P89" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="O89" s="1">
+        <v>100</v>
+      </c>
+      <c r="P89" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0.46500000000000002</v>
+      </c>
       <c r="R89" s="11">
         <f>O89*Q89</f>
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="S89" s="4"/>
     </row>
     <row r="90" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A90" s="10">
+        <v>69</v>
+      </c>
       <c r="B90" s="10">
-        <v>9</v>
-      </c>
-      <c r="D90" s="23" t="s">
-        <v>658</v>
-      </c>
-      <c r="E90" s="24" t="s">
-        <v>659</v>
-      </c>
-      <c r="F90" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="I90" s="19"/>
-      <c r="J90" s="19"/>
-      <c r="K90" s="18"/>
-      <c r="N90" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D90" s="18" t="s">
+        <v>630</v>
+      </c>
+      <c r="E90" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="F90" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="H90" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="I90" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="J90" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="K90" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="N90" s="1">
+        <f>NUM_BOARDS*B90</f>
+        <v>144</v>
+      </c>
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
+      <c r="R90" s="11">
+        <f>O90*Q90</f>
+        <v>0</v>
+      </c>
       <c r="S90" s="4"/>
+      <c r="T90" s="2"/>
+      <c r="U90" s="2"/>
+      <c r="V90" s="2"/>
+      <c r="W90" s="2"/>
+      <c r="X90" s="2"/>
+      <c r="Y90" s="2"/>
+      <c r="Z90" s="2"/>
+      <c r="AA90" s="2"/>
+      <c r="AB90" s="2"/>
+      <c r="AC90" s="2"/>
     </row>
     <row r="91" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A91" s="10">
-        <v>71</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B91" s="10">
+        <v>2</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D91" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="E91" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="F91" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I91" s="19"/>
+      <c r="J91" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="K91" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="N91" s="1">
+        <f>NUM_BOARDS*B91</f>
+        <v>16</v>
+      </c>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="R91" s="11">
+        <f>O91*Q91</f>
+        <v>0</v>
+      </c>
+      <c r="S91" s="4"/>
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A92" s="10">
-        <v>72</v>
-      </c>
-      <c r="B92" s="10">
-        <v>7</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D92" s="18" t="s">
-        <v>564</v>
-      </c>
-      <c r="E92" s="18" t="s">
-        <v>313</v>
-      </c>
-      <c r="F92" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="H92" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="I92" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="J92" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="K92" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="N92" s="1">
-        <f t="shared" ref="N92:N100" si="7">NUM_BOARDS*B92</f>
-        <v>56</v>
-      </c>
-      <c r="O92" s="10">
-        <v>100</v>
-      </c>
-      <c r="P92" s="10">
-        <v>100</v>
-      </c>
-      <c r="Q92" s="11">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="R92" s="11">
-        <f>O92*Q92</f>
-        <v>29.9</v>
-      </c>
-      <c r="S92" s="4"/>
+        <v>71</v>
+      </c>
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A93" s="10">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B93" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C93" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="E93" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="F93" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="H93" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="I93" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="J93" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="K93" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="N93" s="1">
+        <f t="shared" ref="N93:N101" si="7">NUM_BOARDS*B93</f>
+        <v>56</v>
+      </c>
+      <c r="O93" s="10">
+        <v>100</v>
+      </c>
+      <c r="P93" s="10">
+        <v>100</v>
+      </c>
+      <c r="Q93" s="11">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="R93" s="11">
+        <f>O93*Q93</f>
+        <v>29.9</v>
+      </c>
+      <c r="S93" s="4"/>
+    </row>
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A94" s="10">
+        <v>73</v>
+      </c>
+      <c r="B94" s="10">
+        <v>6</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D94" s="18" t="s">
+        <v>563</v>
+      </c>
+      <c r="E94" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="F94" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="H94" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="I94" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="J94" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="K94" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="F93" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="H93" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="I93" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="J93" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="K93" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="N93" s="1">
+      <c r="N94" s="1">
         <f t="shared" si="7"/>
         <v>48</v>
       </c>
-      <c r="O93" s="17">
+      <c r="O94" s="17">
         <v>30</v>
       </c>
-      <c r="P93" s="17">
+      <c r="P94" s="17">
         <v>30</v>
       </c>
-      <c r="Q93" s="11">
+      <c r="Q94" s="11">
         <v>0.745</v>
       </c>
-      <c r="R93" s="11">
-        <f>O93*Q93</f>
+      <c r="R94" s="11">
+        <f>O94*Q94</f>
         <v>22.35</v>
       </c>
-      <c r="S93" s="4"/>
-    </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A94" s="10">
+      <c r="S94" s="4"/>
+    </row>
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A95" s="10">
         <v>74</v>
       </c>
-      <c r="B94" s="10">
-        <v>10</v>
-      </c>
-      <c r="C94" s="10" t="s">
+      <c r="B95" s="10">
+        <v>10</v>
+      </c>
+      <c r="C95" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D94" s="18" t="s">
-        <v>563</v>
-      </c>
-      <c r="E94" s="18" t="s">
-        <v>313</v>
-      </c>
-      <c r="F94" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="H94" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="I94" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="J94" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="K94" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="N94" s="1">
+      <c r="D95" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="E95" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="F95" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="H95" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="I95" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="J95" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="K95" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="N95" s="1">
         <f t="shared" si="7"/>
         <v>80</v>
       </c>
-      <c r="O94" s="10">
+      <c r="O95" s="10">
         <v>125</v>
       </c>
-      <c r="P94" s="10">
+      <c r="P95" s="10">
         <v>125</v>
       </c>
-      <c r="Q94" s="11">
+      <c r="Q95" s="11">
         <v>0.28504000000000002</v>
       </c>
-      <c r="R94" s="11">
-        <f>O94*Q94</f>
+      <c r="R95" s="11">
+        <f>O95*Q95</f>
         <v>35.630000000000003</v>
       </c>
-      <c r="S94" s="4"/>
-    </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A95" s="10">
-        <v>75</v>
-      </c>
-      <c r="B95" s="10">
-        <v>1</v>
-      </c>
-      <c r="E95" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="F95" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="I95" s="19"/>
-      <c r="J95" s="19" t="s">
-        <v>328</v>
-      </c>
-      <c r="K95" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="N95" s="1">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="O95" s="18"/>
-      <c r="P95" s="18"/>
-      <c r="Q95" s="18"/>
+      <c r="S95" s="4"/>
     </row>
     <row r="96" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A96" s="10">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B96" s="10">
         <v>1</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F96" s="18" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I96" s="19"/>
       <c r="J96" s="19" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="K96" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="L96" s="1"/>
-      <c r="M96" s="1"/>
+        <v>325</v>
+      </c>
       <c r="N96" s="1">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="O96" s="1"/>
-      <c r="P96" s="1"/>
-      <c r="Q96" s="3"/>
-      <c r="R96" s="11">
-        <f>O96*Q96</f>
-        <v>0</v>
-      </c>
-      <c r="S96" s="4"/>
+      <c r="O96" s="18"/>
+      <c r="P96" s="18"/>
+      <c r="Q96" s="18"/>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="10">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B97" s="10">
         <v>1</v>
       </c>
-      <c r="C97" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D97" s="18" t="s">
-        <v>569</v>
-      </c>
       <c r="E97" s="18" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F97" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="18" t="s">
-        <v>335</v>
-      </c>
-      <c r="H97" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="I97" s="19" t="s">
-        <v>336</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="I97" s="19"/>
       <c r="J97" s="19" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="K97" s="18" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
@@ -7047,24 +7004,18 @@
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="O97" s="10">
-        <v>12</v>
-      </c>
-      <c r="P97" s="10">
-        <v>12</v>
-      </c>
-      <c r="Q97" s="11">
-        <v>10.99</v>
-      </c>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="3"/>
       <c r="R97" s="11">
         <f>O97*Q97</f>
-        <v>131.88</v>
+        <v>0</v>
       </c>
       <c r="S97" s="4"/>
     </row>
-    <row r="98" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="10">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B98" s="10">
         <v>1</v>
@@ -7073,31 +7024,31 @@
         <v>39</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>615</v>
+        <v>565</v>
       </c>
       <c r="E98" s="18" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="F98" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="18" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="H98" s="18" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="I98" s="19" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="J98" s="19" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="K98" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="L98" s="10"/>
-      <c r="M98" s="10"/>
+        <v>334</v>
+      </c>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
       <c r="N98" s="1">
         <f t="shared" si="7"/>
         <v>8</v>
@@ -7109,17 +7060,17 @@
         <v>12</v>
       </c>
       <c r="Q98" s="11">
-        <v>4.4033300000000004</v>
+        <v>10.99</v>
       </c>
       <c r="R98" s="11">
         <f>O98*Q98</f>
-        <v>52.839960000000005</v>
+        <v>131.88</v>
       </c>
       <c r="S98" s="4"/>
     </row>
     <row r="99" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="10">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B99" s="10">
         <v>1</v>
@@ -7128,28 +7079,28 @@
         <v>39</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>587</v>
+        <v>608</v>
       </c>
       <c r="E99" s="18" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="F99" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="18" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="H99" s="18" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="I99" s="19" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="J99" s="19" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="K99" s="18" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="L99" s="10"/>
       <c r="M99" s="10"/>
@@ -7164,143 +7115,146 @@
         <v>12</v>
       </c>
       <c r="Q99" s="11">
-        <v>13.78</v>
+        <v>4.4033300000000004</v>
       </c>
       <c r="R99" s="11">
         <f>O99*Q99</f>
-        <v>165.35999999999999</v>
-      </c>
-      <c r="S99" s="4" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+        <v>52.839960000000005</v>
+      </c>
+      <c r="S99" s="4"/>
+    </row>
+    <row r="100" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="10">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B100" s="10">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C100" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D100" s="18" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="F100" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="18" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="H100" s="18" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I100" s="19" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="J100" s="19" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="K100" s="18" t="s">
-        <v>355</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="L100" s="10"/>
+      <c r="M100" s="10"/>
       <c r="N100" s="1">
         <f t="shared" si="7"/>
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="O100" s="10">
-        <v>110</v>
+        <v>12</v>
+      </c>
+      <c r="P100" s="10">
+        <v>12</v>
       </c>
       <c r="Q100" s="11">
-        <v>1.8213600000000001</v>
+        <v>13.78</v>
       </c>
       <c r="R100" s="11">
         <f>O100*Q100</f>
-        <v>200.34960000000001</v>
-      </c>
-      <c r="S100" s="4"/>
+        <v>165.35999999999999</v>
+      </c>
+      <c r="S100" s="4" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="10">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="B101" s="10">
+        <v>12</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="E101" s="18"/>
+        <v>39</v>
+      </c>
+      <c r="D101" s="18" t="s">
+        <v>577</v>
+      </c>
+      <c r="E101" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="F101" s="18" t="s">
+        <v>10</v>
+      </c>
       <c r="G101" s="18" t="s">
-        <v>486</v>
-      </c>
-      <c r="I101" s="19"/>
-      <c r="J101" s="19"/>
-      <c r="K101" s="18"/>
-      <c r="N101" s="1"/>
+        <v>348</v>
+      </c>
+      <c r="H101" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="I101" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="J101" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="K101" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="N101" s="1">
+        <f t="shared" si="7"/>
+        <v>96</v>
+      </c>
       <c r="O101" s="10">
         <v>110</v>
       </c>
-      <c r="S101" s="4" t="s">
-        <v>487</v>
-      </c>
+      <c r="Q101" s="11">
+        <v>1.8213600000000001</v>
+      </c>
+      <c r="R101" s="11">
+        <f>O101*Q101</f>
+        <v>200.34960000000001</v>
+      </c>
+      <c r="S101" s="4"/>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="10">
-        <v>82</v>
-      </c>
-      <c r="B102" s="10">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D102" s="18" t="s">
-        <v>618</v>
-      </c>
-      <c r="E102" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="F102" s="18" t="s">
-        <v>10</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="E102" s="18"/>
       <c r="G102" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="H102" s="18" t="s">
-        <v>366</v>
-      </c>
-      <c r="I102" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="J102" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="K102" s="18" t="s">
-        <v>355</v>
-      </c>
-      <c r="N102" s="1">
-        <f>NUM_BOARDS*B102</f>
-        <v>8</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="I102" s="19"/>
+      <c r="J102" s="19"/>
+      <c r="K102" s="18"/>
+      <c r="N102" s="1"/>
       <c r="O102" s="10">
-        <v>12</v>
-      </c>
-      <c r="P102" s="10">
-        <v>12</v>
-      </c>
-      <c r="Q102" s="11">
-        <v>12.82917</v>
-      </c>
-      <c r="R102" s="11">
-        <f>O102*Q102</f>
-        <v>153.95004</v>
+        <v>110</v>
+      </c>
+      <c r="S102" s="4" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="10">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B103" s="10">
         <v>1</v>
@@ -7309,135 +7263,134 @@
         <v>39</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>559</v>
+        <v>611</v>
       </c>
       <c r="E103" s="18" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="F103" s="18" t="s">
-        <v>468</v>
+        <v>10</v>
       </c>
       <c r="G103" s="18" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="H103" s="18" t="s">
-        <v>315</v>
+        <v>362</v>
       </c>
       <c r="I103" s="19" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="J103" s="19" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="K103" s="18" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="N103" s="1">
         <f>NUM_BOARDS*B103</f>
         <v>8</v>
       </c>
-      <c r="O103" s="1">
+      <c r="O103" s="10">
         <v>12</v>
       </c>
-      <c r="P103" s="1">
+      <c r="P103" s="10">
         <v>12</v>
       </c>
       <c r="Q103" s="11">
-        <v>5.57</v>
+        <v>12.82917</v>
       </c>
       <c r="R103" s="11">
         <f>O103*Q103</f>
+        <v>153.95004</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A104" s="10">
+        <v>83</v>
+      </c>
+      <c r="B104" s="10">
+        <v>1</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D104" s="18" t="s">
+        <v>555</v>
+      </c>
+      <c r="E104" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="F104" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="G104" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="H104" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="I104" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="J104" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="K104" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="N104" s="1">
+        <f>NUM_BOARDS*B104</f>
+        <v>8</v>
+      </c>
+      <c r="O104" s="1">
+        <v>12</v>
+      </c>
+      <c r="P104" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q104" s="11">
+        <v>5.57</v>
+      </c>
+      <c r="R104" s="11">
+        <f>O104*Q104</f>
         <v>66.84</v>
       </c>
-      <c r="S103" s="4"/>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" s="18">
+      <c r="S104" s="4"/>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A105" s="18">
         <v>83</v>
       </c>
-      <c r="B104" s="18">
+      <c r="B105" s="18">
         <v>2</v>
       </c>
-      <c r="C104" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="D104" s="18" t="s">
-        <v>612</v>
-      </c>
-      <c r="E104" s="18" t="s">
-        <v>545</v>
-      </c>
-      <c r="F104" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="18" t="s">
-        <v>546</v>
-      </c>
-      <c r="H104" s="18" t="s">
-        <v>547</v>
-      </c>
-      <c r="I104" s="18" t="s">
-        <v>548</v>
-      </c>
-      <c r="N104" s="1"/>
-      <c r="R104" s="3"/>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A105" s="10">
-        <v>84</v>
-      </c>
-      <c r="B105" s="10">
-        <v>1</v>
-      </c>
       <c r="C105" s="10" t="s">
-        <v>39</v>
+        <v>532</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="E105" s="18" t="s">
-        <v>374</v>
+        <v>541</v>
       </c>
       <c r="F105" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="18" t="s">
-        <v>375</v>
+        <v>542</v>
       </c>
       <c r="H105" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="I105" s="19" t="s">
-        <v>377</v>
-      </c>
-      <c r="J105" s="19" t="s">
-        <v>378</v>
-      </c>
-      <c r="K105" s="18" t="s">
-        <v>379</v>
-      </c>
-      <c r="N105" s="1">
-        <f t="shared" ref="N105:N110" si="8">NUM_BOARDS*B105</f>
-        <v>8</v>
-      </c>
-      <c r="O105" s="10">
-        <v>12</v>
-      </c>
-      <c r="P105" s="10">
-        <v>12</v>
-      </c>
-      <c r="Q105" s="11">
-        <v>21.36</v>
-      </c>
-      <c r="R105" s="11">
-        <f t="shared" ref="R105:R110" si="9">O105*Q105</f>
-        <v>256.32</v>
-      </c>
-      <c r="S105" s="4"/>
+        <v>543</v>
+      </c>
+      <c r="I105" s="18" t="s">
+        <v>544</v>
+      </c>
+      <c r="N105" s="1"/>
+      <c r="R105" s="3"/>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="10">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B106" s="10">
         <v>1</v>
@@ -7446,31 +7399,31 @@
         <v>39</v>
       </c>
       <c r="D106" s="18" t="s">
-        <v>636</v>
+        <v>602</v>
       </c>
       <c r="E106" s="18" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="F106" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="18" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="H106" s="18" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="I106" s="19" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="J106" s="19" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="K106" s="18" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="N106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="N106:N111" si="8">NUM_BOARDS*B106</f>
         <v>8</v>
       </c>
       <c r="O106" s="10">
@@ -7480,44 +7433,47 @@
         <v>12</v>
       </c>
       <c r="Q106" s="11">
-        <v>6.5533299999999999</v>
+        <v>21.36</v>
       </c>
       <c r="R106" s="11">
-        <f t="shared" si="9"/>
-        <v>78.639960000000002</v>
+        <f t="shared" ref="R106:R111" si="9">O106*Q106</f>
+        <v>256.32</v>
       </c>
       <c r="S106" s="4"/>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="10">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B107" s="10">
         <v>1</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>549</v>
+        <v>39</v>
+      </c>
+      <c r="D107" s="18" t="s">
+        <v>629</v>
       </c>
       <c r="E107" s="18" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="F107" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G107" s="19" t="s">
-        <v>488</v>
+      <c r="G107" s="18" t="s">
+        <v>377</v>
       </c>
       <c r="H107" s="18" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="I107" s="19" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="J107" s="19" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="K107" s="18" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="N107" s="1">
         <f t="shared" si="8"/>
@@ -7530,49 +7486,44 @@
         <v>12</v>
       </c>
       <c r="Q107" s="11">
-        <v>9.6833299999999998</v>
+        <v>6.5533299999999999</v>
       </c>
       <c r="R107" s="11">
         <f t="shared" si="9"/>
-        <v>116.19996</v>
-      </c>
-      <c r="S107" s="4" t="s">
-        <v>489</v>
-      </c>
+        <v>78.639960000000002</v>
+      </c>
+      <c r="S107" s="4"/>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="10">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B108" s="10">
         <v>1</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D108" s="18" t="s">
-        <v>616</v>
+        <v>545</v>
       </c>
       <c r="E108" s="18" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F108" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G108" s="18" t="s">
-        <v>389</v>
+      <c r="G108" s="19" t="s">
+        <v>484</v>
       </c>
       <c r="H108" s="18" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="I108" s="19" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="J108" s="19" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="K108" s="18" t="s">
-        <v>392</v>
+        <v>351</v>
       </c>
       <c r="N108" s="1">
         <f t="shared" si="8"/>
@@ -7585,212 +7536,214 @@
         <v>12</v>
       </c>
       <c r="Q108" s="11">
-        <v>6.1833299999999998</v>
+        <v>9.6833299999999998</v>
       </c>
       <c r="R108" s="11">
         <f t="shared" si="9"/>
-        <v>74.199960000000004</v>
-      </c>
-      <c r="S108" s="4"/>
+        <v>116.19996</v>
+      </c>
+      <c r="S108" s="4" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="10">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B109" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C109" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>586</v>
+        <v>609</v>
       </c>
       <c r="E109" s="18" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="F109" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="18" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="H109" s="18" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="I109" s="19" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="J109" s="19" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="K109" s="18" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="N109" s="1">
         <f t="shared" si="8"/>
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="O109" s="10">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="P109" s="10">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="Q109" s="11">
-        <v>24.573599999999999</v>
+        <v>6.1833299999999998</v>
       </c>
       <c r="R109" s="11">
         <f t="shared" si="9"/>
-        <v>933.79679999999996</v>
+        <v>74.199960000000004</v>
       </c>
       <c r="S109" s="4"/>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="10">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B110" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C110" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D110" s="18" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="E110" s="18" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="F110" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="18" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="H110" s="18" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I110" s="19" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="J110" s="19" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="K110" s="18" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="N110" s="1">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="O110" s="10">
-        <v>20</v>
-      </c>
-      <c r="P110" s="7">
-        <v>6</v>
+        <v>38</v>
+      </c>
+      <c r="P110" s="10">
+        <v>38</v>
       </c>
       <c r="Q110" s="11">
-        <v>4.1900000000000004</v>
+        <v>24.573599999999999</v>
       </c>
       <c r="R110" s="11">
         <f t="shared" si="9"/>
+        <v>933.79679999999996</v>
+      </c>
+      <c r="S110" s="4"/>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A111" s="10">
+        <v>89</v>
+      </c>
+      <c r="B111" s="10">
+        <v>2</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D111" s="18" t="s">
+        <v>578</v>
+      </c>
+      <c r="E111" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="F111" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="H111" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="I111" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="J111" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="K111" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="N111" s="1">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="O111" s="10">
+        <v>20</v>
+      </c>
+      <c r="P111" s="7">
+        <v>6</v>
+      </c>
+      <c r="Q111" s="11">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="R111" s="11">
+        <f t="shared" si="9"/>
         <v>83.800000000000011</v>
       </c>
-      <c r="S110" s="4" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A111" s="18">
+      <c r="S111" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A112" s="18">
         <v>89</v>
       </c>
-      <c r="B111" s="18">
+      <c r="B112" s="18">
         <v>1</v>
       </c>
-      <c r="C111" s="10" t="s">
+      <c r="C112" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="D112" s="18" t="s">
+        <v>595</v>
+      </c>
+      <c r="E112" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="F112" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="D111" s="18" t="s">
-        <v>602</v>
-      </c>
-      <c r="E111" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="F111" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="18" t="s">
-        <v>540</v>
-      </c>
-      <c r="H111" s="18" t="s">
+      <c r="H112" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="I112" s="18" t="s">
         <v>382</v>
       </c>
-      <c r="I111" s="18" t="s">
-        <v>386</v>
-      </c>
-      <c r="N111" s="1"/>
-      <c r="R111" s="3"/>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A112" s="10">
-        <v>90</v>
-      </c>
-      <c r="B112" s="10">
-        <v>9</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D112" s="18" t="s">
-        <v>562</v>
-      </c>
-      <c r="E112" s="18" t="s">
-        <v>403</v>
-      </c>
-      <c r="F112" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="18" t="s">
-        <v>404</v>
-      </c>
-      <c r="H112" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="I112" s="19" t="s">
-        <v>405</v>
-      </c>
-      <c r="J112" s="19" t="s">
-        <v>406</v>
-      </c>
-      <c r="K112" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="N112" s="1">
-        <f t="shared" ref="N112:N120" si="10">NUM_BOARDS*B112</f>
-        <v>72</v>
-      </c>
-      <c r="O112" s="10">
-        <v>120</v>
-      </c>
-      <c r="P112" s="10">
-        <v>120</v>
-      </c>
-      <c r="Q112" s="11">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="R112" s="11">
-        <f t="shared" ref="R112:R120" si="11">O112*Q112</f>
-        <v>31.32</v>
-      </c>
-      <c r="S112" s="4"/>
+      <c r="N112" s="1"/>
+      <c r="R112" s="3"/>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="10">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B113" s="10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C113" s="10" t="s">
         <v>39</v>
@@ -7799,335 +7752,344 @@
         <v>558</v>
       </c>
       <c r="E113" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="F113" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="H113" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="I113" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="J113" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="K113" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="N113" s="1">
+        <f t="shared" ref="N113:N121" si="10">NUM_BOARDS*B113</f>
+        <v>72</v>
+      </c>
+      <c r="O113" s="10">
+        <v>120</v>
+      </c>
+      <c r="P113" s="10">
+        <v>120</v>
+      </c>
+      <c r="Q113" s="11">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="R113" s="11">
+        <f t="shared" ref="R113:R121" si="11">O113*Q113</f>
+        <v>31.32</v>
+      </c>
+      <c r="S113" s="4"/>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A114" s="10">
+        <v>91</v>
+      </c>
+      <c r="B114" s="10">
+        <v>1</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D114" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="E114" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="F114" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="H114" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="I114" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="J114" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="K114" s="18" t="s">
         <v>407</v>
       </c>
-      <c r="F113" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" s="18" t="s">
-        <v>408</v>
-      </c>
-      <c r="H113" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="I113" s="19" t="s">
-        <v>409</v>
-      </c>
-      <c r="J113" s="19" t="s">
-        <v>410</v>
-      </c>
-      <c r="K113" s="18" t="s">
-        <v>411</v>
-      </c>
-      <c r="N113" s="1">
+      <c r="N114" s="1">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="O113" s="10">
+      <c r="O114" s="10">
         <v>12</v>
       </c>
-      <c r="P113" s="10">
+      <c r="P114" s="10">
         <v>12</v>
       </c>
-      <c r="Q113" s="11">
+      <c r="Q114" s="11">
         <v>0.91332999999999998</v>
       </c>
-      <c r="R113" s="11">
+      <c r="R114" s="11">
         <f t="shared" si="11"/>
         <v>10.959959999999999</v>
       </c>
-      <c r="S113" s="4" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A114" s="10">
+      <c r="S114" s="4" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A115" s="10">
         <v>92</v>
       </c>
-      <c r="B114" s="10">
+      <c r="B115" s="10">
         <v>8</v>
       </c>
-      <c r="C114" s="10" t="s">
+      <c r="C115" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D114" s="18" t="s">
-        <v>568</v>
-      </c>
-      <c r="E114" s="18" t="s">
+      <c r="D115" s="18" t="s">
+        <v>564</v>
+      </c>
+      <c r="E115" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="F115" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="H115" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="I115" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="J115" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="K115" s="18" t="s">
         <v>412</v>
       </c>
-      <c r="F114" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="18" t="s">
-        <v>413</v>
-      </c>
-      <c r="H114" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="I114" s="19" t="s">
-        <v>414</v>
-      </c>
-      <c r="J114" s="19" t="s">
-        <v>415</v>
-      </c>
-      <c r="K114" s="18" t="s">
-        <v>416</v>
-      </c>
-      <c r="N114" s="1">
+      <c r="N115" s="1">
         <f t="shared" si="10"/>
         <v>64</v>
       </c>
-      <c r="O114" s="10">
+      <c r="O115" s="10">
         <v>100</v>
       </c>
-      <c r="P114" s="10">
+      <c r="P115" s="10">
         <v>100</v>
       </c>
-      <c r="Q114" s="11">
+      <c r="Q115" s="11">
         <v>1.0549999999999999</v>
       </c>
-      <c r="R114" s="11">
+      <c r="R115" s="11">
         <f t="shared" si="11"/>
         <v>105.5</v>
       </c>
-      <c r="S114" s="4"/>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A115" s="10">
+      <c r="S115" s="4"/>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A116" s="10">
         <v>93</v>
       </c>
-      <c r="B115" s="10">
+      <c r="B116" s="10">
         <v>7</v>
       </c>
-      <c r="C115" s="10" t="s">
+      <c r="C116" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D115" s="18" t="s">
-        <v>566</v>
-      </c>
-      <c r="E115" s="18" t="s">
-        <v>417</v>
-      </c>
-      <c r="F115" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="18" t="s">
-        <v>418</v>
-      </c>
-      <c r="H115" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="I115" s="19" t="s">
-        <v>419</v>
-      </c>
-      <c r="J115" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="K115" s="18" t="s">
+      <c r="D116" s="18" t="s">
+        <v>562</v>
+      </c>
+      <c r="E116" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="F116" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="H116" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="I116" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="J116" s="19" t="s">
         <v>416</v>
       </c>
-      <c r="N115" s="1">
+      <c r="K116" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="N116" s="1">
         <f t="shared" si="10"/>
         <v>56</v>
       </c>
-      <c r="O115" s="10">
+      <c r="O116" s="10">
         <v>100</v>
       </c>
-      <c r="P115" s="10">
+      <c r="P116" s="10">
         <v>100</v>
       </c>
-      <c r="Q115" s="11">
+      <c r="Q116" s="11">
         <v>1.046</v>
       </c>
-      <c r="R115" s="11">
+      <c r="R116" s="11">
         <f t="shared" si="11"/>
         <v>104.60000000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A116" s="10">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A117" s="10">
         <v>94</v>
       </c>
-      <c r="B116" s="10">
+      <c r="B117" s="10">
         <v>1</v>
       </c>
-      <c r="C116" s="10" t="s">
+      <c r="C117" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D116" s="18" t="s">
-        <v>610</v>
-      </c>
-      <c r="E116" s="18" t="s">
+      <c r="D117" s="18" t="s">
+        <v>603</v>
+      </c>
+      <c r="E117" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="F117" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="H117" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="I117" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="J117" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="K117" s="18" t="s">
         <v>421</v>
       </c>
-      <c r="F116" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G116" s="18" t="s">
-        <v>422</v>
-      </c>
-      <c r="H116" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="I116" s="19" t="s">
-        <v>423</v>
-      </c>
-      <c r="J116" s="19" t="s">
-        <v>424</v>
-      </c>
-      <c r="K116" s="18" t="s">
-        <v>425</v>
-      </c>
-      <c r="N116" s="1">
+      <c r="N117" s="1">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="O116" s="8">
+      <c r="O117" s="8">
         <v>40</v>
       </c>
-      <c r="P116" s="10">
+      <c r="P117" s="10">
         <v>40</v>
       </c>
-      <c r="Q116" s="11">
+      <c r="Q117" s="11">
         <v>1.54</v>
       </c>
-      <c r="R116" s="11">
+      <c r="R117" s="11">
         <f t="shared" si="11"/>
         <v>61.6</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A117" s="10">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A118" s="10">
         <v>95</v>
       </c>
-      <c r="B117" s="10">
+      <c r="B118" s="10">
         <v>2</v>
       </c>
-      <c r="C117" s="10" t="s">
+      <c r="C118" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D117" s="18" t="s">
-        <v>617</v>
-      </c>
-      <c r="E117" s="18" t="s">
+      <c r="D118" s="18" t="s">
+        <v>610</v>
+      </c>
+      <c r="E118" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="F118" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="G118" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="H118" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="I118" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="J118" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="K118" s="18" t="s">
         <v>426</v>
       </c>
-      <c r="F117" s="18" t="s">
-        <v>468</v>
-      </c>
-      <c r="G117" s="18" t="s">
-        <v>427</v>
-      </c>
-      <c r="H117" s="18" t="s">
-        <v>428</v>
-      </c>
-      <c r="I117" s="19" t="s">
-        <v>427</v>
-      </c>
-      <c r="J117" s="19" t="s">
-        <v>429</v>
-      </c>
-      <c r="K117" s="18" t="s">
-        <v>430</v>
-      </c>
-      <c r="N117" s="1">
+      <c r="N118" s="1">
         <f t="shared" si="10"/>
         <v>16</v>
       </c>
-      <c r="O117" s="10">
+      <c r="O118" s="10">
         <v>20</v>
       </c>
-      <c r="P117" s="10">
+      <c r="P118" s="10">
         <v>20</v>
       </c>
-      <c r="Q117" s="11">
+      <c r="Q118" s="11">
         <v>16.09</v>
       </c>
-      <c r="R117" s="11">
+      <c r="R118" s="11">
         <f t="shared" si="11"/>
         <v>321.8</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A118" s="10">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A119" s="10">
         <v>96</v>
       </c>
-      <c r="B118" s="10">
+      <c r="B119" s="10">
         <v>4</v>
       </c>
-      <c r="C118" s="10" t="s">
+      <c r="C119" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D118" s="18" t="s">
-        <v>565</v>
-      </c>
-      <c r="E118" s="18" t="s">
-        <v>469</v>
-      </c>
-      <c r="F118" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="18" t="s">
-        <v>470</v>
-      </c>
-      <c r="H118" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="I118" s="19" t="s">
-        <v>471</v>
-      </c>
-      <c r="J118" s="19"/>
-      <c r="K118" s="18" t="s">
-        <v>472</v>
-      </c>
-      <c r="N118" s="1">
+      <c r="D119" s="18" t="s">
+        <v>561</v>
+      </c>
+      <c r="E119" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="F119" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="H119" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="I119" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="J119" s="19"/>
+      <c r="K119" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="N119" s="1">
         <f t="shared" si="10"/>
         <v>32</v>
-      </c>
-      <c r="O118" s="17"/>
-      <c r="R118" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A119" s="10">
-        <v>98</v>
-      </c>
-      <c r="B119" s="10">
-        <v>1</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D119" s="18" t="s">
-        <v>561</v>
-      </c>
-      <c r="E119" s="19" t="s">
-        <v>492</v>
-      </c>
-      <c r="F119" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" s="18" t="s">
-        <v>493</v>
-      </c>
-      <c r="H119" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="I119" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="J119" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="K119" s="19" t="s">
-        <v>495</v>
-      </c>
-      <c r="N119" s="1">
-        <f t="shared" si="10"/>
-        <v>8</v>
       </c>
       <c r="O119" s="17"/>
       <c r="R119" s="11">
@@ -8137,7 +8099,7 @@
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" s="10">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B120" s="10">
         <v>1</v>
@@ -8146,28 +8108,28 @@
         <v>39</v>
       </c>
       <c r="D120" s="18" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E120" s="19" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="F120" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="18" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="H120" s="18" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="K120" s="19" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="N120" s="1">
         <f t="shared" si="10"/>
@@ -8180,30 +8142,58 @@
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A121" s="10">
+        <v>99</v>
+      </c>
       <c r="B121" s="10">
         <v>1</v>
       </c>
-      <c r="D121" s="25" t="s">
-        <v>660</v>
-      </c>
-      <c r="E121" s="26" t="s">
-        <v>662</v>
+      <c r="C121" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D121" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="E121" s="19" t="s">
+        <v>492</v>
+      </c>
+      <c r="F121" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="H121" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="I121" s="6" t="s">
+        <v>494</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="N121" s="1"/>
+        <v>514</v>
+      </c>
+      <c r="K121" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="N121" s="1">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
       <c r="O121" s="17"/>
+      <c r="R121" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B122" s="10">
         <v>1</v>
       </c>
-      <c r="D122" s="25" t="s">
-        <v>661</v>
-      </c>
-      <c r="E122" s="27" t="s">
-        <v>663</v>
+      <c r="D122" s="23" t="s">
+        <v>648</v>
+      </c>
+      <c r="E122" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="J122" s="6" t="s">
         <v>182</v>
@@ -8212,287 +8202,266 @@
       <c r="O122" s="17"/>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D123" s="18"/>
+      <c r="B123" s="10">
+        <v>1</v>
+      </c>
+      <c r="D123" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="E123" s="25" t="s">
+        <v>651</v>
+      </c>
+      <c r="J123" s="6" t="s">
+        <v>182</v>
+      </c>
       <c r="N123" s="1"/>
       <c r="O123" s="17"/>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A124" s="10">
-        <v>100</v>
-      </c>
-      <c r="B124" s="10">
-        <v>3</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D124" s="18" t="s">
-        <v>635</v>
-      </c>
-      <c r="E124" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="F124" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="18" t="s">
-        <v>513</v>
-      </c>
-      <c r="H124" s="18" t="s">
-        <v>514</v>
-      </c>
-      <c r="I124" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="K124" s="19" t="s">
-        <v>516</v>
-      </c>
-      <c r="N124" s="1">
-        <f>NUM_BOARDS*B124</f>
-        <v>24</v>
-      </c>
+      <c r="D124" s="18"/>
+      <c r="N124" s="1"/>
       <c r="O124" s="17"/>
-      <c r="R124" s="11">
-        <f>O124*Q124</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" s="10">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B125" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C125" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D125" s="18" t="s">
-        <v>551</v>
-      </c>
-      <c r="E125" s="18" t="s">
-        <v>434</v>
+        <v>628</v>
+      </c>
+      <c r="E125" s="19" t="s">
+        <v>508</v>
       </c>
       <c r="F125" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="18" t="s">
-        <v>435</v>
+        <v>509</v>
       </c>
       <c r="H125" s="18" t="s">
-        <v>436</v>
-      </c>
-      <c r="I125" s="19" t="s">
-        <v>437</v>
-      </c>
-      <c r="J125" s="19" t="s">
-        <v>438</v>
-      </c>
-      <c r="K125" s="18" t="s">
-        <v>439</v>
+        <v>510</v>
+      </c>
+      <c r="I125" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="K125" s="19" t="s">
+        <v>512</v>
       </c>
       <c r="N125" s="1">
         <f>NUM_BOARDS*B125</f>
-        <v>8</v>
-      </c>
-      <c r="O125" s="10">
-        <v>12</v>
-      </c>
-      <c r="P125" s="10">
-        <v>12</v>
-      </c>
-      <c r="Q125" s="11">
-        <v>1.5191699999999999</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="O125" s="17"/>
       <c r="R125" s="11">
         <f>O125*Q125</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A126" s="10">
+        <v>101</v>
+      </c>
+      <c r="B126" s="10">
+        <v>1</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D126" s="18" t="s">
+        <v>547</v>
+      </c>
+      <c r="E126" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="F126" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="H126" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="I126" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="J126" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="K126" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="N126" s="1">
+        <f>NUM_BOARDS*B126</f>
+        <v>8</v>
+      </c>
+      <c r="O126" s="10">
+        <v>12</v>
+      </c>
+      <c r="P126" s="10">
+        <v>12</v>
+      </c>
+      <c r="Q126" s="11">
+        <v>1.5191699999999999</v>
+      </c>
+      <c r="R126" s="11">
+        <f>O126*Q126</f>
         <v>18.230039999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D126" s="18"/>
-      <c r="E126" s="18"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="19"/>
-      <c r="K126" s="18"/>
-      <c r="N126" s="1"/>
-    </row>
-    <row r="127" spans="1:19" ht="360" x14ac:dyDescent="0.25">
-      <c r="B127" s="10">
-        <v>148</v>
-      </c>
-      <c r="D127" s="12" t="s">
-        <v>664</v>
-      </c>
-      <c r="E127" s="28" t="s">
-        <v>665</v>
-      </c>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D127" s="18"/>
+      <c r="E127" s="18"/>
       <c r="I127" s="19"/>
       <c r="J127" s="19"/>
       <c r="K127" s="18"/>
       <c r="N127" s="1"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D128" s="18"/>
-      <c r="E128" s="18"/>
+    <row r="128" spans="1:19" ht="360" x14ac:dyDescent="0.25">
+      <c r="B128" s="10">
+        <v>148</v>
+      </c>
+      <c r="D128" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="E128" s="26" t="s">
+        <v>653</v>
+      </c>
       <c r="I128" s="19"/>
       <c r="J128" s="19"/>
       <c r="K128" s="18"/>
       <c r="N128" s="1"/>
     </row>
     <row r="129" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B129" s="10">
-        <v>3</v>
-      </c>
-      <c r="D129" s="29" t="s">
-        <v>666</v>
-      </c>
-      <c r="E129" s="18" t="s">
-        <v>667</v>
-      </c>
+      <c r="D129" s="18"/>
+      <c r="E129" s="18"/>
       <c r="I129" s="19"/>
       <c r="J129" s="19"/>
       <c r="K129" s="18"/>
       <c r="N129" s="1"/>
     </row>
     <row r="130" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A130" s="10">
-        <v>102</v>
-      </c>
+      <c r="B130" s="10">
+        <v>3</v>
+      </c>
+      <c r="D130" s="27" t="s">
+        <v>654</v>
+      </c>
+      <c r="E130" s="18" t="s">
+        <v>655</v>
+      </c>
+      <c r="I130" s="19"/>
+      <c r="J130" s="19"/>
+      <c r="K130" s="18"/>
+      <c r="N130" s="1"/>
     </row>
     <row r="131" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A131" s="10">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A132" s="10">
         <v>103</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="B132" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E131" s="18"/>
-      <c r="N131" s="1"/>
-      <c r="R131" s="3"/>
-    </row>
-    <row r="132" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B132" s="10">
-        <v>18</v>
-      </c>
-      <c r="D132" s="37" t="s">
-        <v>679</v>
-      </c>
-      <c r="E132" s="38" t="s">
-        <v>680</v>
-      </c>
+      <c r="E132" s="18"/>
       <c r="N132" s="1"/>
       <c r="R132" s="3"/>
     </row>
     <row r="133" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A133" s="10">
-        <v>104</v>
-      </c>
       <c r="B133" s="10">
-        <v>12</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D133" s="18" t="s">
-        <v>588</v>
-      </c>
-      <c r="E133" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="F133" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H133" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="I133" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J133" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M133" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N133" s="1">
-        <f t="shared" ref="N133:N140" si="12">NUM_BOARDS*B133</f>
-        <v>96</v>
-      </c>
-      <c r="O133" s="10">
-        <v>140</v>
-      </c>
-      <c r="P133" s="10">
-        <v>140</v>
-      </c>
-      <c r="Q133" s="11">
-        <v>1.1559999999999999</v>
-      </c>
-      <c r="R133" s="3">
-        <f t="shared" ref="R133:R157" si="13">O133*Q133</f>
-        <v>161.83999999999997</v>
-      </c>
-      <c r="V133" s="10"/>
-      <c r="W133" s="10"/>
-      <c r="X133" s="11"/>
-      <c r="Y133" s="11"/>
-      <c r="AC133" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D133" s="35" t="s">
+        <v>667</v>
+      </c>
+      <c r="E133" s="36" t="s">
+        <v>668</v>
+      </c>
+      <c r="N133" s="1"/>
+      <c r="R133" s="3"/>
     </row>
     <row r="134" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A134" s="10">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B134" s="10">
         <v>12</v>
       </c>
+      <c r="C134" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D134" s="18" t="s">
+        <v>581</v>
+      </c>
       <c r="E134" s="18" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F134" s="18" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G134" s="18" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="H134" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I134" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J134" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="M134" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N134" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="N134:N141" si="12">NUM_BOARDS*B134</f>
         <v>96</v>
       </c>
       <c r="O134" s="10">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="P134" s="10">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="Q134" s="11">
-        <v>5.45E-2</v>
+        <v>1.1559999999999999</v>
       </c>
       <c r="R134" s="3">
-        <f t="shared" si="13"/>
-        <v>5.45</v>
-      </c>
+        <f t="shared" ref="R134:R158" si="13">O134*Q134</f>
+        <v>161.83999999999997</v>
+      </c>
+      <c r="V134" s="10"/>
+      <c r="W134" s="10"/>
+      <c r="X134" s="11"/>
+      <c r="Y134" s="11"/>
+      <c r="AC134" s="9"/>
     </row>
     <row r="135" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A135" s="10">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B135" s="10">
         <v>12</v>
       </c>
       <c r="E135" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F135" s="18" t="s">
         <v>55</v>
       </c>
       <c r="G135" s="18" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M135" s="10" t="s">
         <v>21</v>
@@ -8508,28 +8477,28 @@
         <v>100</v>
       </c>
       <c r="Q135" s="11">
-        <v>1.4E-2</v>
+        <v>5.45E-2</v>
       </c>
       <c r="R135" s="3">
         <f t="shared" si="13"/>
-        <v>1.4000000000000001</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="136" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A136" s="10">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B136" s="10">
         <v>12</v>
       </c>
       <c r="E136" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F136" s="18" t="s">
         <v>55</v>
       </c>
       <c r="G136" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M136" s="10" t="s">
         <v>21</v>
@@ -8545,280 +8514,274 @@
         <v>100</v>
       </c>
       <c r="Q136" s="11">
-        <v>5.6000000000000001E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="R136" s="3">
         <f t="shared" si="13"/>
+        <v>1.4000000000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A137" s="10">
+        <v>107</v>
+      </c>
+      <c r="B137" s="10">
+        <v>12</v>
+      </c>
+      <c r="E137" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F137" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G137" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="M137" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N137" s="1">
+        <f t="shared" si="12"/>
+        <v>96</v>
+      </c>
+      <c r="O137" s="10">
+        <v>100</v>
+      </c>
+      <c r="P137" s="10">
+        <v>100</v>
+      </c>
+      <c r="Q137" s="11">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="R137" s="3">
+        <f t="shared" si="13"/>
         <v>5.6000000000000005</v>
       </c>
     </row>
-    <row r="137" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B137" s="10">
+    <row r="138" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B138" s="10">
         <v>3</v>
       </c>
-      <c r="D137" s="10" t="s">
-        <v>681</v>
-      </c>
-      <c r="E137" s="18" t="s">
-        <v>682</v>
-      </c>
-      <c r="F137" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="18" t="s">
-        <v>683</v>
-      </c>
-      <c r="H137" s="18" t="s">
+      <c r="D138" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="E138" s="18" t="s">
+        <v>670</v>
+      </c>
+      <c r="F138" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="H138" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="I137" s="6" t="s">
-        <v>684</v>
-      </c>
-      <c r="N137" s="1"/>
-      <c r="R137" s="3"/>
-    </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A138" s="10">
+      <c r="I138" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="N138" s="1"/>
+      <c r="R138" s="3"/>
+    </row>
+    <row r="139" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A139" s="10">
         <v>108</v>
       </c>
-      <c r="B138" s="10">
+      <c r="B139" s="10">
         <v>6</v>
       </c>
-      <c r="C138" s="10" t="s">
+      <c r="C139" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D138" s="18" t="s">
-        <v>611</v>
-      </c>
-      <c r="E138" s="18" t="s">
+      <c r="D139" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="E139" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F138" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G138" s="18" t="s">
+      <c r="F139" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="H138" s="18" t="s">
+      <c r="H139" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="I138" s="6" t="s">
+      <c r="I139" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="M138" s="10" t="s">
+      <c r="M139" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="N138" s="1">
+      <c r="N139" s="1">
         <f t="shared" si="12"/>
         <v>48</v>
       </c>
-      <c r="O138" s="10">
+      <c r="O139" s="10">
         <v>100</v>
       </c>
-      <c r="P138" s="10">
+      <c r="P139" s="10">
         <v>100</v>
       </c>
-      <c r="Q138" s="11">
+      <c r="Q139" s="11">
         <v>0.127</v>
       </c>
-      <c r="R138" s="3">
+      <c r="R139" s="3">
         <f t="shared" si="13"/>
         <v>12.7</v>
       </c>
     </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A139" s="10">
+    <row r="140" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A140" s="10">
         <v>109</v>
       </c>
-      <c r="B139" s="10">
+      <c r="B140" s="10">
         <v>12</v>
       </c>
-      <c r="E139" s="18" t="s">
+      <c r="E140" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F139" s="18" t="s">
+      <c r="F140" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G139" s="18" t="s">
+      <c r="G140" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="H139" s="18" t="s">
+      <c r="H140" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="I139" s="19" t="s">
+      <c r="I140" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="M139" s="10" t="s">
+      <c r="M140" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="N139" s="1">
+      <c r="N140" s="1">
         <f t="shared" si="12"/>
         <v>96</v>
       </c>
-      <c r="O139" s="1">
+      <c r="O140" s="1">
         <v>119</v>
       </c>
-      <c r="P139" s="1">
+      <c r="P140" s="1">
         <v>119</v>
       </c>
-      <c r="Q139" s="11">
+      <c r="Q140" s="11">
         <v>0.185</v>
       </c>
-      <c r="R139" s="3">
+      <c r="R140" s="3">
         <f t="shared" si="13"/>
         <v>22.015000000000001</v>
       </c>
-      <c r="S139" s="4"/>
-      <c r="V139" s="10"/>
-      <c r="W139" s="10"/>
-      <c r="X139" s="11"/>
-      <c r="Y139" s="11"/>
-      <c r="AC139" s="9"/>
-    </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A140" s="10">
+      <c r="S140" s="4"/>
+      <c r="V140" s="10"/>
+      <c r="W140" s="10"/>
+      <c r="X140" s="11"/>
+      <c r="Y140" s="11"/>
+      <c r="AC140" s="9"/>
+    </row>
+    <row r="141" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A141" s="10">
         <v>110</v>
       </c>
-      <c r="B140" s="10">
+      <c r="B141" s="10">
         <v>2</v>
       </c>
-      <c r="D140" s="30" t="s">
-        <v>672</v>
-      </c>
-      <c r="E140" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="F140" s="18" t="s">
+      <c r="D141" s="28" t="s">
+        <v>660</v>
+      </c>
+      <c r="E141" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="F141" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="G140" s="18" t="s">
+      <c r="G141" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="H140" s="18" t="s">
+      <c r="H141" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="I140" s="19" t="s">
+      <c r="I141" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="J140" s="19" t="s">
+      <c r="J141" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="K140" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="M140" s="10" t="s">
+      <c r="K141" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="M141" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="N140" s="1">
+      <c r="N141" s="1">
         <f t="shared" si="12"/>
         <v>16</v>
       </c>
-      <c r="O140" s="10">
+      <c r="O141" s="10">
         <v>20</v>
       </c>
-      <c r="P140" s="10">
+      <c r="P141" s="10">
         <v>20</v>
       </c>
-      <c r="Q140" s="11">
+      <c r="Q141" s="11">
         <v>18.043500000000002</v>
       </c>
-      <c r="R140" s="3">
+      <c r="R141" s="3">
         <f t="shared" si="13"/>
         <v>360.87</v>
       </c>
-      <c r="S140" s="4"/>
-    </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A141" s="10">
-        <v>111</v>
-      </c>
-      <c r="B141" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="E141" s="13" t="s">
-        <v>455</v>
-      </c>
-      <c r="F141" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="H141" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="I141" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="J141" s="19"/>
-      <c r="K141" s="18"/>
-      <c r="M141" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="R141" s="11">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="S141" s="4"/>
     </row>
     <row r="142" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A142" s="10">
-        <v>112</v>
-      </c>
-      <c r="B142" s="10">
-        <v>1</v>
-      </c>
-      <c r="D142" s="10" t="s">
-        <v>668</v>
+        <v>111</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>449</v>
       </c>
       <c r="E142" s="13" t="s">
-        <v>226</v>
+        <v>451</v>
       </c>
       <c r="F142" s="18" t="s">
-        <v>466</v>
-      </c>
-      <c r="J142" s="19" t="s">
-        <v>229</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="H142" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="I142" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="J142" s="19"/>
       <c r="K142" s="18"/>
       <c r="M142" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="N142" s="1">
-        <f>NUM_BOARDS*B142</f>
-        <v>8</v>
-      </c>
-      <c r="O142" s="1">
-        <v>1</v>
-      </c>
-      <c r="P142" s="1"/>
-      <c r="Q142" s="11">
-        <v>172</v>
-      </c>
-      <c r="R142" s="3">
+      <c r="R142" s="11">
         <f t="shared" si="13"/>
-        <v>172</v>
-      </c>
-      <c r="S142" s="4" t="s">
-        <v>465</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S142" s="4"/>
     </row>
     <row r="143" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A143" s="10">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B143" s="10">
         <v>1</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="E143" s="13" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F143" s="18" t="s">
-        <v>466</v>
-      </c>
-      <c r="I143" s="19"/>
+        <v>462</v>
+      </c>
       <c r="J143" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K143" s="18"/>
       <c r="M143" s="10" t="s">
@@ -8828,36 +8791,40 @@
         <f>NUM_BOARDS*B143</f>
         <v>8</v>
       </c>
-      <c r="O143" s="10">
+      <c r="O143" s="1">
         <v>1</v>
       </c>
+      <c r="P143" s="1"/>
       <c r="Q143" s="11">
         <v>172</v>
       </c>
-      <c r="R143" s="11">
+      <c r="R143" s="3">
         <f t="shared" si="13"/>
         <v>172</v>
       </c>
       <c r="S143" s="4" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="144" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A144" s="10">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B144" s="10">
-        <v>2</v>
-      </c>
-      <c r="D144" s="33" t="s">
-        <v>675</v>
-      </c>
-      <c r="E144" s="18" t="s">
-        <v>467</v>
+        <v>1</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>657</v>
+      </c>
+      <c r="E144" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="F144" s="18" t="s">
+        <v>462</v>
       </c>
       <c r="I144" s="19"/>
       <c r="J144" s="19" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K144" s="18"/>
       <c r="M144" s="10" t="s">
@@ -8865,106 +8832,115 @@
       </c>
       <c r="N144" s="1">
         <f>NUM_BOARDS*B144</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O144" s="10">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q144" s="11">
-        <v>21.95</v>
+        <v>172</v>
       </c>
       <c r="R144" s="11">
         <f t="shared" si="13"/>
-        <v>351.2</v>
+        <v>172</v>
+      </c>
+      <c r="S144" s="4" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" s="10">
-        <v>115</v>
-      </c>
-      <c r="B145" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="E145" s="13" t="s">
-        <v>456</v>
-      </c>
-      <c r="F145" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="H145" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="I145" s="6" t="s">
-        <v>77</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B145" s="10">
+        <v>2</v>
+      </c>
+      <c r="D145" s="31" t="s">
+        <v>663</v>
+      </c>
+      <c r="E145" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="I145" s="19"/>
+      <c r="J145" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="K145" s="18"/>
       <c r="M145" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="N145" s="1"/>
-      <c r="O145" s="1">
+      <c r="N145" s="1">
+        <f>NUM_BOARDS*B145</f>
+        <v>16</v>
+      </c>
+      <c r="O145" s="10">
+        <v>16</v>
+      </c>
+      <c r="Q145" s="11">
+        <v>21.95</v>
+      </c>
+      <c r="R145" s="11">
+        <f t="shared" si="13"/>
+        <v>351.2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A146" s="10">
+        <v>115</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="E146" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="F146" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H146" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="I146" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M146" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N146" s="1"/>
+      <c r="O146" s="1">
         <v>5</v>
       </c>
-      <c r="P145" s="10">
+      <c r="P146" s="10">
         <v>5</v>
       </c>
-      <c r="Q145" s="11">
+      <c r="Q146" s="11">
         <v>28.27</v>
       </c>
-      <c r="R145" s="3">
+      <c r="R146" s="3">
         <f t="shared" si="13"/>
         <v>141.35</v>
       </c>
-      <c r="S145" s="4"/>
-    </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A146" s="10">
-        <v>116</v>
-      </c>
-      <c r="B146" s="10">
-        <v>1</v>
-      </c>
-      <c r="D146" s="10" t="s">
-        <v>670</v>
-      </c>
-      <c r="E146" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="I146" s="19"/>
-      <c r="J146" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="K146" s="18"/>
-      <c r="M146" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N146" s="1">
-        <f>NUM_BOARDS*B146</f>
-        <v>8</v>
-      </c>
-      <c r="R146" s="11">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="S146" s="4"/>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" s="10">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B147" s="10">
         <v>1</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="E147" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I147" s="19"/>
       <c r="J147" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K147" s="18"/>
       <c r="M147" s="10" t="s">
@@ -8981,180 +8957,179 @@
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" s="10">
-        <v>118</v>
-      </c>
-      <c r="B148" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="E148" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F148" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H148" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="I148" s="6" t="s">
-        <v>64</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B148" s="10">
+        <v>1</v>
+      </c>
+      <c r="D148" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="E148" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="I148" s="19"/>
+      <c r="J148" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="K148" s="18"/>
       <c r="M148" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="N148" s="1"/>
-      <c r="O148" s="10">
+      <c r="N148" s="1">
+        <f>NUM_BOARDS*B148</f>
+        <v>8</v>
+      </c>
+      <c r="R148" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A149" s="10">
+        <v>118</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="E149" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F149" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="H149" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I149" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M149" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N149" s="1"/>
+      <c r="O149" s="10">
         <v>1</v>
       </c>
-      <c r="P148" s="10">
+      <c r="P149" s="10">
         <v>1</v>
       </c>
-      <c r="Q148" s="11">
+      <c r="Q149" s="11">
         <v>39.85</v>
       </c>
-      <c r="R148" s="3">
+      <c r="R149" s="3">
         <f t="shared" si="13"/>
         <v>39.85</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A149" s="10">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A150" s="10">
         <v>119</v>
       </c>
-      <c r="B149" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="E149" s="18" t="s">
+      <c r="B150" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="E150" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F149" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="18" t="s">
+      <c r="F150" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="H149" s="18" t="s">
+      <c r="H150" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="I149" s="6" t="s">
+      <c r="I150" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="M149" s="10" t="s">
+      <c r="M150" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="N149" s="1"/>
-      <c r="O149" s="1">
+      <c r="N150" s="1"/>
+      <c r="O150" s="1">
         <v>1</v>
       </c>
-      <c r="P149" s="1">
+      <c r="P150" s="1">
         <v>1</v>
       </c>
-      <c r="Q149" s="11">
+      <c r="Q150" s="11">
         <v>20</v>
       </c>
-      <c r="R149" s="3">
+      <c r="R150" s="3">
         <f t="shared" si="13"/>
         <v>20</v>
       </c>
-      <c r="S149" s="4"/>
-    </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A150" s="10">
+      <c r="S150" s="4"/>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A151" s="10">
         <v>120</v>
       </c>
-      <c r="B150" s="10">
+      <c r="B151" s="10">
         <v>12</v>
       </c>
-      <c r="E150" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="F150" s="18" t="s">
-        <v>463</v>
-      </c>
-      <c r="G150" s="18" t="s">
-        <v>462</v>
-      </c>
-      <c r="H150" s="18" t="s">
-        <v>463</v>
-      </c>
-      <c r="I150" s="18" t="s">
-        <v>462</v>
-      </c>
-      <c r="M150" s="10" t="s">
+      <c r="E151" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="F151" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="G151" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="H151" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="I151" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="M151" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="N150" s="1">
-        <f>NUM_BOARDS*B150</f>
+      <c r="N151" s="1">
+        <f>NUM_BOARDS*B151</f>
         <v>96</v>
       </c>
-      <c r="O150" s="10">
+      <c r="O151" s="10">
         <v>125</v>
       </c>
-      <c r="P150" s="10">
+      <c r="P151" s="10">
         <v>125</v>
       </c>
-      <c r="Q150" s="11">
+      <c r="Q151" s="11">
         <v>0.95</v>
       </c>
-      <c r="R150" s="11">
+      <c r="R151" s="11">
         <f t="shared" si="13"/>
         <v>118.75</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A151" s="10">
-        <v>121</v>
-      </c>
-      <c r="B151" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="E151" s="19" t="s">
-        <v>503</v>
-      </c>
-      <c r="F151" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151" s="18" t="s">
-        <v>507</v>
-      </c>
-      <c r="H151" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="I151" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="N151" s="1">
-        <v>10</v>
-      </c>
-      <c r="O151" s="17"/>
-      <c r="R151" s="11">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" s="10">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E152" s="19" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="F152" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="18" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="H152" s="18" t="s">
         <v>198</v>
       </c>
       <c r="I152" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="N152" s="1">
         <v>10</v>
@@ -9167,28 +9142,28 @@
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" s="10">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E153" s="19" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="F153" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="18" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="H153" s="18" t="s">
         <v>198</v>
       </c>
       <c r="I153" s="6" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="N153" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="O153" s="17"/>
       <c r="R153" s="11">
@@ -9198,25 +9173,25 @@
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" s="10">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E154" s="19" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="F154" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="18" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="H154" s="18" t="s">
-        <v>521</v>
+        <v>198</v>
       </c>
       <c r="I154" s="6" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="N154" s="1">
         <v>100</v>
@@ -9229,25 +9204,25 @@
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" s="10">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E155" s="19" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="F155" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="18" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="H155" s="18" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="I155" s="6" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="N155" s="1">
         <v>100</v>
@@ -9260,25 +9235,25 @@
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" s="10">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E156" s="19" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="F156" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="18" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="H156" s="18" t="s">
-        <v>211</v>
+        <v>517</v>
       </c>
       <c r="I156" s="6" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="N156" s="1">
         <v>100</v>
@@ -9291,25 +9266,25 @@
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" s="10">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E157" s="19" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F157" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="18" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="H157" s="18" t="s">
-        <v>3</v>
+        <v>211</v>
       </c>
       <c r="I157" s="6" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="N157" s="1">
         <v>100</v>
@@ -9322,159 +9297,190 @@
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" s="10">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="E158" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="F158" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="H158" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I158" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="N158" s="1">
+        <v>100</v>
+      </c>
+      <c r="O158" s="17"/>
+      <c r="R158" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" s="10">
-        <v>129</v>
-      </c>
-      <c r="B159" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="R159" s="11">
-        <f>O159*Q159</f>
-        <v>0</v>
+        <v>128</v>
       </c>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" s="10">
-        <v>130</v>
-      </c>
-      <c r="B160" s="10">
-        <v>0</v>
-      </c>
-      <c r="C160" s="10" t="s">
-        <v>538</v>
-      </c>
-      <c r="E160" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="G160" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="H160" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="I160" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="J160" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="K160" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="N160" s="1">
-        <f>NUM_BOARDS*B160</f>
-        <v>0</v>
-      </c>
-      <c r="O160" s="10">
-        <v>500</v>
-      </c>
-      <c r="P160" s="10">
-        <v>500</v>
-      </c>
-      <c r="Q160" s="11">
-        <v>0.78500000000000003</v>
+        <v>129</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>436</v>
       </c>
       <c r="R160" s="11">
         <f>O160*Q160</f>
-        <v>392.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A161" s="10">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B161" s="10">
         <v>0</v>
       </c>
+      <c r="C161" s="10" t="s">
+        <v>534</v>
+      </c>
       <c r="E161" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="F161" s="18" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G161" s="18" t="s">
-        <v>204</v>
+        <v>112</v>
       </c>
       <c r="H161" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="I161" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="J161" s="19" t="s">
-        <v>207</v>
+        <v>113</v>
+      </c>
+      <c r="I161" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J161" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="K161" s="18" t="s">
-        <v>208</v>
+        <v>94</v>
       </c>
       <c r="N161" s="1">
         <f>NUM_BOARDS*B161</f>
         <v>0</v>
       </c>
       <c r="O161" s="10">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="P161" s="10">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="Q161" s="11">
-        <v>0.86</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="R161" s="11">
         <f>O161*Q161</f>
-        <v>51.6</v>
+        <v>392.5</v>
       </c>
     </row>
     <row r="162" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A162" s="10">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B162" s="10">
         <v>0</v>
       </c>
-      <c r="E162" s="19" t="s">
-        <v>82</v>
+      <c r="E162" s="18" t="s">
+        <v>203</v>
       </c>
       <c r="F162" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="18" t="s">
-        <v>83</v>
+        <v>204</v>
       </c>
       <c r="H162" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="I162" s="6" t="s">
-        <v>84</v>
+        <v>205</v>
+      </c>
+      <c r="I162" s="19" t="s">
+        <v>206</v>
       </c>
       <c r="J162" s="19" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="K162" s="18" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="N162" s="1">
         <f>NUM_BOARDS*B162</f>
         <v>0</v>
       </c>
       <c r="O162" s="10">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="P162" s="10">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="Q162" s="11">
-        <v>0.27900000000000003</v>
+        <v>0.86</v>
       </c>
       <c r="R162" s="11">
         <f>O162*Q162</f>
+        <v>51.6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A163" s="10">
+        <v>132</v>
+      </c>
+      <c r="B163" s="10">
+        <v>0</v>
+      </c>
+      <c r="E163" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F163" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="H163" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I163" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J163" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="K163" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="N163" s="1">
+        <f>NUM_BOARDS*B163</f>
+        <v>0</v>
+      </c>
+      <c r="O163" s="10">
+        <v>12</v>
+      </c>
+      <c r="P163" s="10">
+        <v>12</v>
+      </c>
+      <c r="Q163" s="11">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="R163" s="11">
+        <f>O163*Q163</f>
         <v>3.3480000000000003</v>
       </c>
-      <c r="AC162" s="14"/>
+      <c r="AC163" s="14"/>
     </row>
   </sheetData>
   <sortState ref="A7:S142">
